--- a/Excel/resultados.xlsx
+++ b/Excel/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="198">
   <si>
     <t>Mandante</t>
   </si>
@@ -475,6 +475,96 @@
     <t>Coritiba x Sport</t>
   </si>
   <si>
+    <t>Atlético-MG x Santos</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Bahia</t>
+  </si>
+  <si>
+    <t>Fluminense x Botafogo</t>
+  </si>
+  <si>
+    <t>Palmeiras x Corinthians</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Vitória x Vasco</t>
+  </si>
+  <si>
+    <t>Flamengo x Grêmio</t>
+  </si>
+  <si>
+    <t>São Paulo x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Sport x Chapecoense</t>
+  </si>
+  <si>
+    <t>Avaí x Coritiba</t>
+  </si>
+  <si>
+    <t>Corinthians x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Palmeiras x Vitória</t>
+  </si>
+  <si>
+    <t>Vasco x Santos</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Flamengo</t>
+  </si>
+  <si>
+    <t>Grêmio x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Chapecoense x São Paulo</t>
+  </si>
+  <si>
+    <t>Coritiba x Fluminense</t>
+  </si>
+  <si>
+    <t>Bahia x Avaí</t>
+  </si>
+  <si>
+    <t>Botafogo x Sport</t>
+  </si>
+  <si>
+    <t>Santos x Chapecoense</t>
+  </si>
+  <si>
+    <t>Vitória x Grêmio</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Coritiba</t>
+  </si>
+  <si>
+    <t>Avaí x Corinthians</t>
+  </si>
+  <si>
+    <t>Flamengo x Palmeiras</t>
+  </si>
+  <si>
+    <t>São Paulo x Vasco</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Bahia</t>
+  </si>
+  <si>
+    <t>Fluminense x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Sport x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Botafogo</t>
+  </si>
+  <si>
     <t>01ª RODADA</t>
   </si>
   <si>
@@ -509,6 +599,15 @@
   </si>
   <si>
     <t>12ª RODADA</t>
+  </si>
+  <si>
+    <t>13ª RODADA</t>
+  </si>
+  <si>
+    <t>14ª RODADA</t>
+  </si>
+  <si>
+    <t>15ª RODADA</t>
   </si>
 </sst>
 </file>
@@ -866,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,7 +1011,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -935,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -958,7 +1057,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -981,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1004,7 +1103,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1027,7 +1126,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1050,7 +1149,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1073,7 +1172,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1096,7 +1195,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1119,7 +1218,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1142,7 +1241,7 @@
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1165,7 +1264,7 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1188,7 +1287,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1211,7 +1310,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1234,7 +1333,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1257,7 +1356,7 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1280,7 +1379,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1303,7 +1402,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1326,7 +1425,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1349,7 +1448,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1372,7 +1471,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1395,7 +1494,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1418,7 +1517,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1441,7 +1540,7 @@
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1464,7 +1563,7 @@
         <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1487,7 +1586,7 @@
         <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1510,7 +1609,7 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1533,7 +1632,7 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1556,7 +1655,7 @@
         <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1579,7 +1678,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1602,7 +1701,7 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1625,7 +1724,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1648,7 +1747,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1671,7 +1770,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1694,7 +1793,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1717,7 +1816,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1740,7 +1839,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1763,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1786,7 +1885,7 @@
         <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1809,7 +1908,7 @@
         <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1832,7 +1931,7 @@
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1855,7 +1954,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1878,7 +1977,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1901,7 +2000,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1924,7 +2023,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1947,7 +2046,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1970,7 +2069,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1993,7 +2092,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2016,7 +2115,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2039,7 +2138,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2062,7 +2161,7 @@
         <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2085,7 +2184,7 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2108,7 +2207,7 @@
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2131,7 +2230,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2154,7 +2253,7 @@
         <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2177,7 +2276,7 @@
         <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2200,7 +2299,7 @@
         <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2223,7 +2322,7 @@
         <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2246,7 +2345,7 @@
         <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2269,7 +2368,7 @@
         <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2292,7 +2391,7 @@
         <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2315,7 +2414,7 @@
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2338,7 +2437,7 @@
         <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2361,7 +2460,7 @@
         <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2384,7 +2483,7 @@
         <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2407,7 +2506,7 @@
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2430,7 +2529,7 @@
         <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2453,7 +2552,7 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2476,7 +2575,7 @@
         <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2499,7 +2598,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2522,7 +2621,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2545,7 +2644,7 @@
         <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2568,7 +2667,7 @@
         <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2591,7 +2690,7 @@
         <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2614,7 +2713,7 @@
         <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2637,7 +2736,7 @@
         <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2660,7 +2759,7 @@
         <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2683,7 +2782,7 @@
         <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2706,7 +2805,7 @@
         <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2729,7 +2828,7 @@
         <v>112</v>
       </c>
       <c r="G81" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2752,7 +2851,7 @@
         <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2775,7 +2874,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2798,7 +2897,7 @@
         <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2821,7 +2920,7 @@
         <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2844,7 +2943,7 @@
         <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2867,7 +2966,7 @@
         <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2890,7 +2989,7 @@
         <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2913,7 +3012,7 @@
         <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2936,7 +3035,7 @@
         <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2959,7 +3058,7 @@
         <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2982,7 +3081,7 @@
         <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3005,7 +3104,7 @@
         <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3028,7 +3127,7 @@
         <v>125</v>
       </c>
       <c r="G94" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3051,7 +3150,7 @@
         <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3074,7 +3173,7 @@
         <v>127</v>
       </c>
       <c r="G96" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3097,7 +3196,7 @@
         <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3120,7 +3219,7 @@
         <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3143,7 +3242,7 @@
         <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3166,7 +3265,7 @@
         <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3189,7 +3288,7 @@
         <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3212,7 +3311,7 @@
         <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3235,7 +3334,7 @@
         <v>134</v>
       </c>
       <c r="G103" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3258,7 +3357,7 @@
         <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3281,7 +3380,7 @@
         <v>136</v>
       </c>
       <c r="G105" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3304,7 +3403,7 @@
         <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3327,7 +3426,7 @@
         <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3350,7 +3449,7 @@
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3373,7 +3472,7 @@
         <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3396,7 +3495,7 @@
         <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3419,7 +3518,7 @@
         <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3442,7 +3541,7 @@
         <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3465,7 +3564,7 @@
         <v>144</v>
       </c>
       <c r="G113" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3488,7 +3587,7 @@
         <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3511,7 +3610,7 @@
         <v>146</v>
       </c>
       <c r="G115" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3534,7 +3633,7 @@
         <v>147</v>
       </c>
       <c r="G116" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3557,7 +3656,7 @@
         <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3580,7 +3679,7 @@
         <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3603,7 +3702,7 @@
         <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3626,7 +3725,7 @@
         <v>151</v>
       </c>
       <c r="G120" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3649,7 +3748,697 @@
         <v>152</v>
       </c>
       <c r="G121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" t="s">
+        <v>153</v>
+      </c>
+      <c r="G122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>154</v>
+      </c>
+      <c r="G123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" t="s">
+        <v>155</v>
+      </c>
+      <c r="G124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" t="s">
+        <v>156</v>
+      </c>
+      <c r="G125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" t="s">
+        <v>157</v>
+      </c>
+      <c r="G126" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
+        <v>158</v>
+      </c>
+      <c r="G127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>26</v>
+      </c>
+      <c r="F128" t="s">
+        <v>159</v>
+      </c>
+      <c r="G128" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" t="s">
+        <v>160</v>
+      </c>
+      <c r="G129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" t="s">
+        <v>161</v>
+      </c>
+      <c r="G130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>162</v>
+      </c>
+      <c r="G131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" t="s">
+        <v>31</v>
+      </c>
+      <c r="F132" t="s">
+        <v>163</v>
+      </c>
+      <c r="G132" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" t="s">
         <v>164</v>
+      </c>
+      <c r="G133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" t="s">
+        <v>165</v>
+      </c>
+      <c r="G134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" t="s">
+        <v>26</v>
+      </c>
+      <c r="F135" t="s">
+        <v>166</v>
+      </c>
+      <c r="G135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" t="s">
+        <v>167</v>
+      </c>
+      <c r="G136" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" t="s">
+        <v>168</v>
+      </c>
+      <c r="G137" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" t="s">
+        <v>169</v>
+      </c>
+      <c r="G138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" t="s">
+        <v>170</v>
+      </c>
+      <c r="G139" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" t="s">
+        <v>171</v>
+      </c>
+      <c r="G140" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" t="s">
+        <v>172</v>
+      </c>
+      <c r="G141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" t="s">
+        <v>173</v>
+      </c>
+      <c r="G142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" t="s">
+        <v>174</v>
+      </c>
+      <c r="G143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" t="s">
+        <v>175</v>
+      </c>
+      <c r="G144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" t="s">
+        <v>176</v>
+      </c>
+      <c r="G145" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" t="s">
+        <v>177</v>
+      </c>
+      <c r="G146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" t="s">
+        <v>178</v>
+      </c>
+      <c r="G147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" t="s">
+        <v>179</v>
+      </c>
+      <c r="G148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" t="s">
+        <v>180</v>
+      </c>
+      <c r="G149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" t="s">
+        <v>181</v>
+      </c>
+      <c r="G150" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" t="s">
+        <v>30</v>
+      </c>
+      <c r="F151" t="s">
+        <v>182</v>
+      </c>
+      <c r="G151" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/resultados.xlsx
+++ b/Excel/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="275">
   <si>
     <t>Mandante</t>
   </si>
@@ -565,6 +565,216 @@
     <t>Atlético-PR x Botafogo</t>
   </si>
   <si>
+    <t>Vitória x Chapecoense</t>
+  </si>
+  <si>
+    <t>Flamengo x Coritiba</t>
+  </si>
+  <si>
+    <t>Santos x Bahia</t>
+  </si>
+  <si>
+    <t>Fluminense x Corinthians</t>
+  </si>
+  <si>
+    <t>Sport x Palmeiras</t>
+  </si>
+  <si>
+    <t>Avaí x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Vasco</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Botafogo</t>
+  </si>
+  <si>
+    <t>São Paulo x Grêmio</t>
+  </si>
+  <si>
+    <t>Botafogo x São Paulo</t>
+  </si>
+  <si>
+    <t>Palmeiras x Avaí</t>
+  </si>
+  <si>
+    <t>Chapecoense x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Corinthians x Flamengo</t>
+  </si>
+  <si>
+    <t>Coritiba x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Bahia x Sport</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Vitória</t>
+  </si>
+  <si>
+    <t>Grêmio x Santos</t>
+  </si>
+  <si>
+    <t>Vasco x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Fluminense</t>
+  </si>
+  <si>
+    <t>Sport x Fluminense</t>
+  </si>
+  <si>
+    <t>Chapecoense x Bahia</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Corinthians</t>
+  </si>
+  <si>
+    <t>Vitória x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Botafogo x Palmeiras</t>
+  </si>
+  <si>
+    <t>Santos x Flamengo</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Grêmio</t>
+  </si>
+  <si>
+    <t>São Paulo x Coritiba</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Avaí</t>
+  </si>
+  <si>
+    <t>Vasco x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Fluminense x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Corinthians x Sport</t>
+  </si>
+  <si>
+    <t>Flamengo x Vitória</t>
+  </si>
+  <si>
+    <t>Palmeiras x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Botafogo</t>
+  </si>
+  <si>
+    <t>Coritiba x Chapecoense</t>
+  </si>
+  <si>
+    <t>Grêmio x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Bahia x São Paulo</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Vasco</t>
+  </si>
+  <si>
+    <t>Avaí x Santos</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Coritiba</t>
+  </si>
+  <si>
+    <t>Vitória x Avaí</t>
+  </si>
+  <si>
+    <t>São Paulo x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Vasco x Palmeiras</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Flamengo</t>
+  </si>
+  <si>
+    <t>Sport x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Botafogo x Grêmio</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Bahia</t>
+  </si>
+  <si>
+    <t>Santos x Fluminense</t>
+  </si>
+  <si>
+    <t>Chapecoense x Corinthians</t>
+  </si>
+  <si>
+    <t>Corinthians x Vitória</t>
+  </si>
+  <si>
+    <t>Flamengo x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Grêmio x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Sport</t>
+  </si>
+  <si>
+    <t>Bahia x Vasco</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Botafogo</t>
+  </si>
+  <si>
+    <t>Avaí x São Paulo</t>
+  </si>
+  <si>
+    <t>Palmeiras x Chapecoense</t>
+  </si>
+  <si>
+    <t>Coritiba x Santos</t>
+  </si>
+  <si>
+    <t>Fluminense x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Fluminense x Vasco</t>
+  </si>
+  <si>
+    <t>Corinthians x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Flamengo x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Palmeiras x São Paulo</t>
+  </si>
+  <si>
+    <t>Bahia x Botafogo</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Santos</t>
+  </si>
+  <si>
+    <t>Avaí x Chapecoense</t>
+  </si>
+  <si>
+    <t>Coritiba x Vitória</t>
+  </si>
+  <si>
+    <t>Grêmio x Sport</t>
+  </si>
+  <si>
     <t>01ª RODADA</t>
   </si>
   <si>
@@ -608,6 +818,27 @@
   </si>
   <si>
     <t>15ª RODADA</t>
+  </si>
+  <si>
+    <t>16ª RODADA</t>
+  </si>
+  <si>
+    <t>17ª RODADA</t>
+  </si>
+  <si>
+    <t>18ª RODADA</t>
+  </si>
+  <si>
+    <t>19ª RODADA</t>
+  </si>
+  <si>
+    <t>20ª RODADA</t>
+  </si>
+  <si>
+    <t>21ª RODADA</t>
+  </si>
+  <si>
+    <t>22ª RODADA</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,7 +1242,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1034,7 +1265,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1057,7 +1288,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1080,7 +1311,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1103,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1126,7 +1357,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1149,7 +1380,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1172,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1195,7 +1426,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1218,7 +1449,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1241,7 +1472,7 @@
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1264,7 +1495,7 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1287,7 +1518,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1310,7 +1541,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1333,7 +1564,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1356,7 +1587,7 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1379,7 +1610,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1402,7 +1633,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1425,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1448,7 +1679,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1471,7 +1702,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1494,7 +1725,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1517,7 +1748,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1540,7 +1771,7 @@
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1563,7 +1794,7 @@
         <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1586,7 +1817,7 @@
         <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1609,7 +1840,7 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1632,7 +1863,7 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1655,7 +1886,7 @@
         <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1678,7 +1909,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1701,7 +1932,7 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1724,7 +1955,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1747,7 +1978,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1770,7 +2001,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1793,7 +2024,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1816,7 +2047,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1839,7 +2070,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1862,7 +2093,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1885,7 +2116,7 @@
         <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1908,7 +2139,7 @@
         <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1931,7 +2162,7 @@
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1954,7 +2185,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1977,7 +2208,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2000,7 +2231,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2023,7 +2254,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2046,7 +2277,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2069,7 +2300,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2092,7 +2323,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2115,7 +2346,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2138,7 +2369,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2161,7 +2392,7 @@
         <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2184,7 +2415,7 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2207,7 +2438,7 @@
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2230,7 +2461,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2253,7 +2484,7 @@
         <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2276,7 +2507,7 @@
         <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2299,7 +2530,7 @@
         <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2322,7 +2553,7 @@
         <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2345,7 +2576,7 @@
         <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2368,7 +2599,7 @@
         <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2391,7 +2622,7 @@
         <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2414,7 +2645,7 @@
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2437,7 +2668,7 @@
         <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2460,7 +2691,7 @@
         <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2483,7 +2714,7 @@
         <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2506,7 +2737,7 @@
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2529,7 +2760,7 @@
         <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2552,7 +2783,7 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2575,7 +2806,7 @@
         <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2598,7 +2829,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2621,7 +2852,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2644,7 +2875,7 @@
         <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2667,7 +2898,7 @@
         <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2690,7 +2921,7 @@
         <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2713,7 +2944,7 @@
         <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2736,7 +2967,7 @@
         <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2759,7 +2990,7 @@
         <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2782,7 +3013,7 @@
         <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2805,7 +3036,7 @@
         <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2828,7 +3059,7 @@
         <v>112</v>
       </c>
       <c r="G81" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2851,7 +3082,7 @@
         <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2874,7 +3105,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2897,7 +3128,7 @@
         <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2920,7 +3151,7 @@
         <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2943,7 +3174,7 @@
         <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2966,7 +3197,7 @@
         <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2989,7 +3220,7 @@
         <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3012,7 +3243,7 @@
         <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3035,7 +3266,7 @@
         <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3058,7 +3289,7 @@
         <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3081,7 +3312,7 @@
         <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3104,7 +3335,7 @@
         <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3127,7 +3358,7 @@
         <v>125</v>
       </c>
       <c r="G94" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3150,7 +3381,7 @@
         <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3173,7 +3404,7 @@
         <v>127</v>
       </c>
       <c r="G96" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3196,7 +3427,7 @@
         <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3219,7 +3450,7 @@
         <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3242,7 +3473,7 @@
         <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3265,7 +3496,7 @@
         <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3288,7 +3519,7 @@
         <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3311,7 +3542,7 @@
         <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3334,7 +3565,7 @@
         <v>134</v>
       </c>
       <c r="G103" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3357,7 +3588,7 @@
         <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3380,7 +3611,7 @@
         <v>136</v>
       </c>
       <c r="G105" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3403,7 +3634,7 @@
         <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3426,7 +3657,7 @@
         <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3449,7 +3680,7 @@
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3472,7 +3703,7 @@
         <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3495,7 +3726,7 @@
         <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3518,7 +3749,7 @@
         <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3541,7 +3772,7 @@
         <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3564,7 +3795,7 @@
         <v>144</v>
       </c>
       <c r="G113" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3587,7 +3818,7 @@
         <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3610,7 +3841,7 @@
         <v>146</v>
       </c>
       <c r="G115" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3633,7 +3864,7 @@
         <v>147</v>
       </c>
       <c r="G116" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3656,7 +3887,7 @@
         <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3679,7 +3910,7 @@
         <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3702,7 +3933,7 @@
         <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3725,7 +3956,7 @@
         <v>151</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3748,7 +3979,7 @@
         <v>152</v>
       </c>
       <c r="G121" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3771,7 +4002,7 @@
         <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3794,7 +4025,7 @@
         <v>154</v>
       </c>
       <c r="G123" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3817,7 +4048,7 @@
         <v>155</v>
       </c>
       <c r="G124" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3840,7 +4071,7 @@
         <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3863,7 +4094,7 @@
         <v>157</v>
       </c>
       <c r="G126" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3886,7 +4117,7 @@
         <v>158</v>
       </c>
       <c r="G127" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3909,7 +4140,7 @@
         <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3932,7 +4163,7 @@
         <v>160</v>
       </c>
       <c r="G129" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3955,7 +4186,7 @@
         <v>161</v>
       </c>
       <c r="G130" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3978,7 +4209,7 @@
         <v>162</v>
       </c>
       <c r="G131" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4001,7 +4232,7 @@
         <v>163</v>
       </c>
       <c r="G132" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4024,7 +4255,7 @@
         <v>164</v>
       </c>
       <c r="G133" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4047,7 +4278,7 @@
         <v>165</v>
       </c>
       <c r="G134" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4070,7 +4301,7 @@
         <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4093,7 +4324,7 @@
         <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4116,7 +4347,7 @@
         <v>168</v>
       </c>
       <c r="G137" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4139,7 +4370,7 @@
         <v>169</v>
       </c>
       <c r="G138" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4162,7 +4393,7 @@
         <v>170</v>
       </c>
       <c r="G139" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4185,7 +4416,7 @@
         <v>171</v>
       </c>
       <c r="G140" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4208,7 +4439,7 @@
         <v>172</v>
       </c>
       <c r="G141" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4231,7 +4462,7 @@
         <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4254,7 +4485,7 @@
         <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4277,7 +4508,7 @@
         <v>175</v>
       </c>
       <c r="G144" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4300,7 +4531,7 @@
         <v>176</v>
       </c>
       <c r="G145" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4323,7 +4554,7 @@
         <v>177</v>
       </c>
       <c r="G146" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4346,7 +4577,7 @@
         <v>178</v>
       </c>
       <c r="G147" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4369,7 +4600,7 @@
         <v>179</v>
       </c>
       <c r="G148" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4392,7 +4623,7 @@
         <v>180</v>
       </c>
       <c r="G149" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4415,7 +4646,7 @@
         <v>181</v>
       </c>
       <c r="G150" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4438,7 +4669,1611 @@
         <v>182</v>
       </c>
       <c r="G151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" t="s">
+        <v>183</v>
+      </c>
+      <c r="G152" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" t="s">
+        <v>26</v>
+      </c>
+      <c r="F153" t="s">
+        <v>184</v>
+      </c>
+      <c r="G153" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" t="s">
+        <v>185</v>
+      </c>
+      <c r="G154" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>26</v>
+      </c>
+      <c r="F155" t="s">
+        <v>186</v>
+      </c>
+      <c r="G155" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" t="s">
+        <v>187</v>
+      </c>
+      <c r="G156" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157" t="s">
+        <v>188</v>
+      </c>
+      <c r="G157" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" t="s">
+        <v>189</v>
+      </c>
+      <c r="G158" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>31</v>
+      </c>
+      <c r="F159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G159" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160" t="s">
+        <v>26</v>
+      </c>
+      <c r="F160" t="s">
+        <v>191</v>
+      </c>
+      <c r="G160" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>26</v>
+      </c>
+      <c r="F161" t="s">
+        <v>192</v>
+      </c>
+      <c r="G161" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" t="s">
+        <v>193</v>
+      </c>
+      <c r="G162" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>31</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" t="s">
+        <v>194</v>
+      </c>
+      <c r="G163" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" t="s">
+        <v>195</v>
+      </c>
+      <c r="G164" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" t="s">
+        <v>196</v>
+      </c>
+      <c r="G165" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" t="s">
         <v>197</v>
+      </c>
+      <c r="G166" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" t="s">
+        <v>198</v>
+      </c>
+      <c r="G167" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" t="s">
+        <v>199</v>
+      </c>
+      <c r="G168" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" t="s">
+        <v>26</v>
+      </c>
+      <c r="F169" t="s">
+        <v>200</v>
+      </c>
+      <c r="G169" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" t="s">
+        <v>201</v>
+      </c>
+      <c r="G170" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" t="s">
+        <v>202</v>
+      </c>
+      <c r="G171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" t="s">
+        <v>203</v>
+      </c>
+      <c r="G172" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>26</v>
+      </c>
+      <c r="F173" t="s">
+        <v>204</v>
+      </c>
+      <c r="G173" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>31</v>
+      </c>
+      <c r="F174" t="s">
+        <v>205</v>
+      </c>
+      <c r="G174" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>26</v>
+      </c>
+      <c r="F175" t="s">
+        <v>206</v>
+      </c>
+      <c r="G175" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" t="s">
+        <v>31</v>
+      </c>
+      <c r="F176" t="s">
+        <v>207</v>
+      </c>
+      <c r="G176" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>31</v>
+      </c>
+      <c r="F177" t="s">
+        <v>208</v>
+      </c>
+      <c r="G177" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
+        <v>26</v>
+      </c>
+      <c r="F178" t="s">
+        <v>209</v>
+      </c>
+      <c r="G178" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" t="s">
+        <v>31</v>
+      </c>
+      <c r="F179" t="s">
+        <v>210</v>
+      </c>
+      <c r="G179" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>30</v>
+      </c>
+      <c r="F180" t="s">
+        <v>211</v>
+      </c>
+      <c r="G180" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" t="s">
+        <v>212</v>
+      </c>
+      <c r="G181" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" t="s">
+        <v>26</v>
+      </c>
+      <c r="F182" t="s">
+        <v>213</v>
+      </c>
+      <c r="G182" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" t="s">
+        <v>26</v>
+      </c>
+      <c r="F183" t="s">
+        <v>214</v>
+      </c>
+      <c r="G183" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>30</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" t="s">
+        <v>31</v>
+      </c>
+      <c r="F184" t="s">
+        <v>215</v>
+      </c>
+      <c r="G184" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" t="s">
+        <v>21</v>
+      </c>
+      <c r="E185" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" t="s">
+        <v>216</v>
+      </c>
+      <c r="G185" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" t="s">
+        <v>30</v>
+      </c>
+      <c r="F186" t="s">
+        <v>217</v>
+      </c>
+      <c r="G186" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>31</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187" t="s">
+        <v>218</v>
+      </c>
+      <c r="G187" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" t="s">
+        <v>219</v>
+      </c>
+      <c r="G188" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>31</v>
+      </c>
+      <c r="D189" t="s">
+        <v>25</v>
+      </c>
+      <c r="E189" t="s">
+        <v>26</v>
+      </c>
+      <c r="F189" t="s">
+        <v>220</v>
+      </c>
+      <c r="G189" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" t="s">
+        <v>30</v>
+      </c>
+      <c r="F190" t="s">
+        <v>221</v>
+      </c>
+      <c r="G190" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" t="s">
+        <v>30</v>
+      </c>
+      <c r="F191" t="s">
+        <v>222</v>
+      </c>
+      <c r="G191" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" t="s">
+        <v>30</v>
+      </c>
+      <c r="F192" t="s">
+        <v>223</v>
+      </c>
+      <c r="G192" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F193" t="s">
+        <v>224</v>
+      </c>
+      <c r="G193" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>31</v>
+      </c>
+      <c r="F194" t="s">
+        <v>225</v>
+      </c>
+      <c r="G194" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" t="s">
+        <v>26</v>
+      </c>
+      <c r="F195" t="s">
+        <v>226</v>
+      </c>
+      <c r="G195" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" t="s">
+        <v>31</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" t="s">
+        <v>30</v>
+      </c>
+      <c r="F196" t="s">
+        <v>227</v>
+      </c>
+      <c r="G196" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>30</v>
+      </c>
+      <c r="F197" t="s">
+        <v>228</v>
+      </c>
+      <c r="G197" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s">
+        <v>30</v>
+      </c>
+      <c r="F198" t="s">
+        <v>229</v>
+      </c>
+      <c r="G198" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" t="s">
+        <v>26</v>
+      </c>
+      <c r="F199" t="s">
+        <v>230</v>
+      </c>
+      <c r="G199" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" t="s">
+        <v>30</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
+        <v>30</v>
+      </c>
+      <c r="F200" t="s">
+        <v>231</v>
+      </c>
+      <c r="G200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>26</v>
+      </c>
+      <c r="F201" t="s">
+        <v>232</v>
+      </c>
+      <c r="G201" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" t="s">
+        <v>26</v>
+      </c>
+      <c r="F202" t="s">
+        <v>233</v>
+      </c>
+      <c r="G202" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>31</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" t="s">
+        <v>30</v>
+      </c>
+      <c r="F203" t="s">
+        <v>234</v>
+      </c>
+      <c r="G203" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>30</v>
+      </c>
+      <c r="D204" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" t="s">
+        <v>30</v>
+      </c>
+      <c r="F204" t="s">
+        <v>235</v>
+      </c>
+      <c r="G204" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>31</v>
+      </c>
+      <c r="D205" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" t="s">
+        <v>30</v>
+      </c>
+      <c r="F205" t="s">
+        <v>236</v>
+      </c>
+      <c r="G205" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206" t="s">
+        <v>237</v>
+      </c>
+      <c r="G206" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>31</v>
+      </c>
+      <c r="D207" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" t="s">
+        <v>26</v>
+      </c>
+      <c r="F207" t="s">
+        <v>238</v>
+      </c>
+      <c r="G207" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208" t="s">
+        <v>26</v>
+      </c>
+      <c r="F208" t="s">
+        <v>239</v>
+      </c>
+      <c r="G208" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>30</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209" t="s">
+        <v>31</v>
+      </c>
+      <c r="F209" t="s">
+        <v>240</v>
+      </c>
+      <c r="G209" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" t="s">
+        <v>30</v>
+      </c>
+      <c r="F210" t="s">
+        <v>241</v>
+      </c>
+      <c r="G210" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>31</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211" t="s">
+        <v>26</v>
+      </c>
+      <c r="F211" t="s">
+        <v>242</v>
+      </c>
+      <c r="G211" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212" t="s">
+        <v>243</v>
+      </c>
+      <c r="G212" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" t="s">
+        <v>26</v>
+      </c>
+      <c r="F213" t="s">
+        <v>244</v>
+      </c>
+      <c r="G213" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>31</v>
+      </c>
+      <c r="D214" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>30</v>
+      </c>
+      <c r="F214" t="s">
+        <v>245</v>
+      </c>
+      <c r="G214" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>25</v>
+      </c>
+      <c r="E215" t="s">
+        <v>31</v>
+      </c>
+      <c r="F215" t="s">
+        <v>246</v>
+      </c>
+      <c r="G215" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>31</v>
+      </c>
+      <c r="F216" t="s">
+        <v>247</v>
+      </c>
+      <c r="G216" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" t="s">
+        <v>26</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>31</v>
+      </c>
+      <c r="F217" t="s">
+        <v>248</v>
+      </c>
+      <c r="G217" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" t="s">
+        <v>26</v>
+      </c>
+      <c r="F218" t="s">
+        <v>249</v>
+      </c>
+      <c r="G218" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>18</v>
+      </c>
+      <c r="E219" t="s">
+        <v>30</v>
+      </c>
+      <c r="F219" t="s">
+        <v>250</v>
+      </c>
+      <c r="G219" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D220" t="s">
+        <v>22</v>
+      </c>
+      <c r="E220" t="s">
+        <v>26</v>
+      </c>
+      <c r="F220" t="s">
+        <v>251</v>
+      </c>
+      <c r="G220" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" t="s">
+        <v>252</v>
+      </c>
+      <c r="G221" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/resultados.xlsx
+++ b/Excel/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="330">
   <si>
     <t>Mandante</t>
   </si>
@@ -775,6 +775,156 @@
     <t>Grêmio x Sport</t>
   </si>
   <si>
+    <t>Atlético-MG x Palmeiras</t>
+  </si>
+  <si>
+    <t>Vasco x Grêmio</t>
+  </si>
+  <si>
+    <t>São Paulo x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Coritiba</t>
+  </si>
+  <si>
+    <t>Santos x Corinthians</t>
+  </si>
+  <si>
+    <t>Sport x Avaí</t>
+  </si>
+  <si>
+    <t>Vitória x Fluminense</t>
+  </si>
+  <si>
+    <t>Botafogo x Flamengo</t>
+  </si>
+  <si>
+    <t>Chapecoense x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Bahia</t>
+  </si>
+  <si>
+    <t>Botafogo x Santos</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Avaí x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Flamengo x Sport</t>
+  </si>
+  <si>
+    <t>Corinthians x Vasco</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Fluminense</t>
+  </si>
+  <si>
+    <t>Grêmio x Chapecoense</t>
+  </si>
+  <si>
+    <t>Vitória x São Paulo</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Bahia</t>
+  </si>
+  <si>
+    <t>Palmeiras x Coritiba</t>
+  </si>
+  <si>
+    <t>Flamengo x Avaí</t>
+  </si>
+  <si>
+    <t>Santos x Atlético-PR</t>
+  </si>
+  <si>
+    <t>São Paulo x Corinthians</t>
+  </si>
+  <si>
+    <t>Fluminense x Palmeiras</t>
+  </si>
+  <si>
+    <t>Coritiba x Botafogo</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Chapecoense x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Vitória</t>
+  </si>
+  <si>
+    <t>Bahia x Grêmio</t>
+  </si>
+  <si>
+    <t>Sport x Vasco</t>
+  </si>
+  <si>
+    <t>Vasco x Chapecoense</t>
+  </si>
+  <si>
+    <t>Bahia x Coritiba</t>
+  </si>
+  <si>
+    <t>Palmeiras x Santos</t>
+  </si>
+  <si>
+    <t>Botafogo x Vitória</t>
+  </si>
+  <si>
+    <t>São Paulo x Sport</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Corinthians</t>
+  </si>
+  <si>
+    <t>Grêmio x Fluminense</t>
+  </si>
+  <si>
+    <t>Avaí x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Flamengo</t>
+  </si>
+  <si>
+    <t>Botafogo x Chapecoense</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Corinthians x Coritiba</t>
+  </si>
+  <si>
+    <t>Atlético-MG x São Paulo</t>
+  </si>
+  <si>
+    <t>Grêmio x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Avaí x Vasco</t>
+  </si>
+  <si>
+    <t>Flamengo x Fluminense</t>
+  </si>
+  <si>
+    <t>Vitória x Sport</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Santos</t>
+  </si>
+  <si>
+    <t>Palmeiras x Bahia</t>
+  </si>
+  <si>
     <t>01ª RODADA</t>
   </si>
   <si>
@@ -839,6 +989,21 @@
   </si>
   <si>
     <t>22ª RODADA</t>
+  </si>
+  <si>
+    <t>23ª RODADA</t>
+  </si>
+  <si>
+    <t>24ª RODADA</t>
+  </si>
+  <si>
+    <t>25ª RODADA</t>
+  </si>
+  <si>
+    <t>26ª RODADA</t>
+  </si>
+  <si>
+    <t>27ª RODADA</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1265,7 +1430,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1288,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1311,7 +1476,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1334,7 +1499,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1357,7 +1522,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1380,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1403,7 +1568,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1426,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1449,7 +1614,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1472,7 +1637,7 @@
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1495,7 +1660,7 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1518,7 +1683,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1541,7 +1706,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1564,7 +1729,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1587,7 +1752,7 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1610,7 +1775,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1633,7 +1798,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1656,7 +1821,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1679,7 +1844,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1702,7 +1867,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1725,7 +1890,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1748,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1771,7 +1936,7 @@
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1794,7 +1959,7 @@
         <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1817,7 +1982,7 @@
         <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1840,7 +2005,7 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1863,7 +2028,7 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1886,7 +2051,7 @@
         <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1909,7 +2074,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1932,7 +2097,7 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1955,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1978,7 +2143,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2001,7 +2166,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2024,7 +2189,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2047,7 +2212,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2070,7 +2235,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2093,7 +2258,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2116,7 +2281,7 @@
         <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2139,7 +2304,7 @@
         <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2162,7 +2327,7 @@
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2185,7 +2350,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2208,7 +2373,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2231,7 +2396,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2254,7 +2419,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2277,7 +2442,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2300,7 +2465,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2323,7 +2488,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2346,7 +2511,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2369,7 +2534,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2392,7 +2557,7 @@
         <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2415,7 +2580,7 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2438,7 +2603,7 @@
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2461,7 +2626,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2484,7 +2649,7 @@
         <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2507,7 +2672,7 @@
         <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2530,7 +2695,7 @@
         <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2553,7 +2718,7 @@
         <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2576,7 +2741,7 @@
         <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2599,7 +2764,7 @@
         <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2622,7 +2787,7 @@
         <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2645,7 +2810,7 @@
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2668,7 +2833,7 @@
         <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2691,7 +2856,7 @@
         <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2714,7 +2879,7 @@
         <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2737,7 +2902,7 @@
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2760,7 +2925,7 @@
         <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2783,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2806,7 +2971,7 @@
         <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2829,7 +2994,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2852,7 +3017,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2875,7 +3040,7 @@
         <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2898,7 +3063,7 @@
         <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2921,7 +3086,7 @@
         <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2944,7 +3109,7 @@
         <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2967,7 +3132,7 @@
         <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2990,7 +3155,7 @@
         <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3013,7 +3178,7 @@
         <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3036,7 +3201,7 @@
         <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3059,7 +3224,7 @@
         <v>112</v>
       </c>
       <c r="G81" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3082,7 +3247,7 @@
         <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3105,7 +3270,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3128,7 +3293,7 @@
         <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3151,7 +3316,7 @@
         <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3174,7 +3339,7 @@
         <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3197,7 +3362,7 @@
         <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3220,7 +3385,7 @@
         <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3243,7 +3408,7 @@
         <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3266,7 +3431,7 @@
         <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3289,7 +3454,7 @@
         <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3312,7 +3477,7 @@
         <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3335,7 +3500,7 @@
         <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3358,7 +3523,7 @@
         <v>125</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3381,7 +3546,7 @@
         <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3404,7 +3569,7 @@
         <v>127</v>
       </c>
       <c r="G96" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3427,7 +3592,7 @@
         <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3450,7 +3615,7 @@
         <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3473,7 +3638,7 @@
         <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3496,7 +3661,7 @@
         <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3519,7 +3684,7 @@
         <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3542,7 +3707,7 @@
         <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3565,7 +3730,7 @@
         <v>134</v>
       </c>
       <c r="G103" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3588,7 +3753,7 @@
         <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3611,7 +3776,7 @@
         <v>136</v>
       </c>
       <c r="G105" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3634,7 +3799,7 @@
         <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3657,7 +3822,7 @@
         <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3680,7 +3845,7 @@
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3703,7 +3868,7 @@
         <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3726,7 +3891,7 @@
         <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3749,7 +3914,7 @@
         <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3772,7 +3937,7 @@
         <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3795,7 +3960,7 @@
         <v>144</v>
       </c>
       <c r="G113" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3818,7 +3983,7 @@
         <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3841,7 +4006,7 @@
         <v>146</v>
       </c>
       <c r="G115" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3864,7 +4029,7 @@
         <v>147</v>
       </c>
       <c r="G116" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3887,7 +4052,7 @@
         <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3910,7 +4075,7 @@
         <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3933,7 +4098,7 @@
         <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3956,7 +4121,7 @@
         <v>151</v>
       </c>
       <c r="G120" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3979,7 +4144,7 @@
         <v>152</v>
       </c>
       <c r="G121" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4002,7 +4167,7 @@
         <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4025,7 +4190,7 @@
         <v>154</v>
       </c>
       <c r="G123" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4048,7 +4213,7 @@
         <v>155</v>
       </c>
       <c r="G124" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4071,7 +4236,7 @@
         <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4094,7 +4259,7 @@
         <v>157</v>
       </c>
       <c r="G126" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4117,7 +4282,7 @@
         <v>158</v>
       </c>
       <c r="G127" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4140,7 +4305,7 @@
         <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4163,7 +4328,7 @@
         <v>160</v>
       </c>
       <c r="G129" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4186,7 +4351,7 @@
         <v>161</v>
       </c>
       <c r="G130" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4209,7 +4374,7 @@
         <v>162</v>
       </c>
       <c r="G131" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4232,7 +4397,7 @@
         <v>163</v>
       </c>
       <c r="G132" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4255,7 +4420,7 @@
         <v>164</v>
       </c>
       <c r="G133" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4278,7 +4443,7 @@
         <v>165</v>
       </c>
       <c r="G134" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4301,7 +4466,7 @@
         <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4324,7 +4489,7 @@
         <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4347,7 +4512,7 @@
         <v>168</v>
       </c>
       <c r="G137" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4370,7 +4535,7 @@
         <v>169</v>
       </c>
       <c r="G138" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4393,7 +4558,7 @@
         <v>170</v>
       </c>
       <c r="G139" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4416,7 +4581,7 @@
         <v>171</v>
       </c>
       <c r="G140" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4439,7 +4604,7 @@
         <v>172</v>
       </c>
       <c r="G141" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4462,7 +4627,7 @@
         <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4485,7 +4650,7 @@
         <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4508,7 +4673,7 @@
         <v>175</v>
       </c>
       <c r="G144" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4531,7 +4696,7 @@
         <v>176</v>
       </c>
       <c r="G145" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4554,7 +4719,7 @@
         <v>177</v>
       </c>
       <c r="G146" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4577,7 +4742,7 @@
         <v>178</v>
       </c>
       <c r="G147" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4600,7 +4765,7 @@
         <v>179</v>
       </c>
       <c r="G148" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4623,7 +4788,7 @@
         <v>180</v>
       </c>
       <c r="G149" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4646,7 +4811,7 @@
         <v>181</v>
       </c>
       <c r="G150" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4669,7 +4834,7 @@
         <v>182</v>
       </c>
       <c r="G151" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4692,7 +4857,7 @@
         <v>183</v>
       </c>
       <c r="G152" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4715,7 +4880,7 @@
         <v>184</v>
       </c>
       <c r="G153" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4738,7 +4903,7 @@
         <v>185</v>
       </c>
       <c r="G154" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4761,7 +4926,7 @@
         <v>186</v>
       </c>
       <c r="G155" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4784,7 +4949,7 @@
         <v>187</v>
       </c>
       <c r="G156" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4807,7 +4972,7 @@
         <v>188</v>
       </c>
       <c r="G157" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4830,7 +4995,7 @@
         <v>189</v>
       </c>
       <c r="G158" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4853,7 +5018,7 @@
         <v>190</v>
       </c>
       <c r="G159" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4876,7 +5041,7 @@
         <v>191</v>
       </c>
       <c r="G160" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4899,7 +5064,7 @@
         <v>192</v>
       </c>
       <c r="G161" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4922,7 +5087,7 @@
         <v>193</v>
       </c>
       <c r="G162" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4945,7 +5110,7 @@
         <v>194</v>
       </c>
       <c r="G163" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4968,7 +5133,7 @@
         <v>195</v>
       </c>
       <c r="G164" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4991,7 +5156,7 @@
         <v>196</v>
       </c>
       <c r="G165" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5014,7 +5179,7 @@
         <v>197</v>
       </c>
       <c r="G166" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5037,7 +5202,7 @@
         <v>198</v>
       </c>
       <c r="G167" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5060,7 +5225,7 @@
         <v>199</v>
       </c>
       <c r="G168" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5083,7 +5248,7 @@
         <v>200</v>
       </c>
       <c r="G169" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5106,7 +5271,7 @@
         <v>201</v>
       </c>
       <c r="G170" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5129,7 +5294,7 @@
         <v>202</v>
       </c>
       <c r="G171" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5152,7 +5317,7 @@
         <v>203</v>
       </c>
       <c r="G172" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5175,7 +5340,7 @@
         <v>204</v>
       </c>
       <c r="G173" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5198,7 +5363,7 @@
         <v>205</v>
       </c>
       <c r="G174" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5221,7 +5386,7 @@
         <v>206</v>
       </c>
       <c r="G175" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5244,7 +5409,7 @@
         <v>207</v>
       </c>
       <c r="G176" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5267,7 +5432,7 @@
         <v>208</v>
       </c>
       <c r="G177" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5290,7 +5455,7 @@
         <v>209</v>
       </c>
       <c r="G178" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5313,7 +5478,7 @@
         <v>210</v>
       </c>
       <c r="G179" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5336,7 +5501,7 @@
         <v>211</v>
       </c>
       <c r="G180" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5359,7 +5524,7 @@
         <v>212</v>
       </c>
       <c r="G181" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5382,7 +5547,7 @@
         <v>213</v>
       </c>
       <c r="G182" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5405,7 +5570,7 @@
         <v>214</v>
       </c>
       <c r="G183" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5428,7 +5593,7 @@
         <v>215</v>
       </c>
       <c r="G184" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5451,7 +5616,7 @@
         <v>216</v>
       </c>
       <c r="G185" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5474,7 +5639,7 @@
         <v>217</v>
       </c>
       <c r="G186" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5497,7 +5662,7 @@
         <v>218</v>
       </c>
       <c r="G187" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5520,7 +5685,7 @@
         <v>219</v>
       </c>
       <c r="G188" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5543,7 +5708,7 @@
         <v>220</v>
       </c>
       <c r="G189" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5566,7 +5731,7 @@
         <v>221</v>
       </c>
       <c r="G190" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5589,7 +5754,7 @@
         <v>222</v>
       </c>
       <c r="G191" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5612,7 +5777,7 @@
         <v>223</v>
       </c>
       <c r="G192" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5635,7 +5800,7 @@
         <v>224</v>
       </c>
       <c r="G193" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5658,7 +5823,7 @@
         <v>225</v>
       </c>
       <c r="G194" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5681,7 +5846,7 @@
         <v>226</v>
       </c>
       <c r="G195" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5704,7 +5869,7 @@
         <v>227</v>
       </c>
       <c r="G196" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5727,7 +5892,7 @@
         <v>228</v>
       </c>
       <c r="G197" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5750,7 +5915,7 @@
         <v>229</v>
       </c>
       <c r="G198" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5773,7 +5938,7 @@
         <v>230</v>
       </c>
       <c r="G199" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5796,7 +5961,7 @@
         <v>231</v>
       </c>
       <c r="G200" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5819,7 +5984,7 @@
         <v>232</v>
       </c>
       <c r="G201" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5842,7 +6007,7 @@
         <v>233</v>
       </c>
       <c r="G202" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5865,7 +6030,7 @@
         <v>234</v>
       </c>
       <c r="G203" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5888,7 +6053,7 @@
         <v>235</v>
       </c>
       <c r="G204" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5911,7 +6076,7 @@
         <v>236</v>
       </c>
       <c r="G205" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5934,7 +6099,7 @@
         <v>237</v>
       </c>
       <c r="G206" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5957,7 +6122,7 @@
         <v>238</v>
       </c>
       <c r="G207" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5980,7 +6145,7 @@
         <v>239</v>
       </c>
       <c r="G208" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6003,7 +6168,7 @@
         <v>240</v>
       </c>
       <c r="G209" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6026,7 +6191,7 @@
         <v>241</v>
       </c>
       <c r="G210" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6049,7 +6214,7 @@
         <v>242</v>
       </c>
       <c r="G211" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6072,7 +6237,7 @@
         <v>243</v>
       </c>
       <c r="G212" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6095,7 +6260,7 @@
         <v>244</v>
       </c>
       <c r="G213" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6118,7 +6283,7 @@
         <v>245</v>
       </c>
       <c r="G214" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6141,7 +6306,7 @@
         <v>246</v>
       </c>
       <c r="G215" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6164,7 +6329,7 @@
         <v>247</v>
       </c>
       <c r="G216" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6187,7 +6352,7 @@
         <v>248</v>
       </c>
       <c r="G217" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6210,7 +6375,7 @@
         <v>249</v>
       </c>
       <c r="G218" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6233,7 +6398,7 @@
         <v>250</v>
       </c>
       <c r="G219" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6256,7 +6421,7 @@
         <v>251</v>
       </c>
       <c r="G220" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6266,14 +6431,1170 @@
       <c r="B221" t="s">
         <v>14</v>
       </c>
+      <c r="C221" t="s">
+        <v>32</v>
+      </c>
       <c r="D221" t="s">
         <v>24</v>
       </c>
+      <c r="E221" t="s">
+        <v>30</v>
+      </c>
       <c r="F221" t="s">
         <v>252</v>
       </c>
       <c r="G221" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>26</v>
+      </c>
+      <c r="F222" t="s">
+        <v>253</v>
+      </c>
+      <c r="G222" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s">
+        <v>30</v>
+      </c>
+      <c r="F223" t="s">
+        <v>254</v>
+      </c>
+      <c r="G223" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>31</v>
+      </c>
+      <c r="F224" t="s">
+        <v>255</v>
+      </c>
+      <c r="G224" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" t="s">
+        <v>26</v>
+      </c>
+      <c r="D225" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" t="s">
+        <v>256</v>
+      </c>
+      <c r="G225" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" t="s">
+        <v>31</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>30</v>
+      </c>
+      <c r="F226" t="s">
+        <v>257</v>
+      </c>
+      <c r="G226" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" t="s">
+        <v>30</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>26</v>
+      </c>
+      <c r="F227" t="s">
+        <v>258</v>
+      </c>
+      <c r="G227" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" t="s">
+        <v>31</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" t="s">
+        <v>31</v>
+      </c>
+      <c r="F228" t="s">
+        <v>259</v>
+      </c>
+      <c r="G228" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" t="s">
+        <v>31</v>
+      </c>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229" t="s">
+        <v>30</v>
+      </c>
+      <c r="F229" t="s">
+        <v>260</v>
+      </c>
+      <c r="G229" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" t="s">
+        <v>26</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" t="s">
+        <v>31</v>
+      </c>
+      <c r="F230" t="s">
+        <v>261</v>
+      </c>
+      <c r="G230" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" t="s">
+        <v>26</v>
+      </c>
+      <c r="F231" t="s">
+        <v>262</v>
+      </c>
+      <c r="G231" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" t="s">
+        <v>31</v>
+      </c>
+      <c r="D232" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" t="s">
+        <v>30</v>
+      </c>
+      <c r="F232" t="s">
+        <v>263</v>
+      </c>
+      <c r="G232" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" t="s">
+        <v>27</v>
+      </c>
+      <c r="F233" t="s">
+        <v>264</v>
+      </c>
+      <c r="G233" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" t="s">
+        <v>20</v>
+      </c>
+      <c r="E234" t="s">
+        <v>26</v>
+      </c>
+      <c r="F234" t="s">
+        <v>265</v>
+      </c>
+      <c r="G234" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>31</v>
+      </c>
+      <c r="D235" t="s">
+        <v>24</v>
+      </c>
+      <c r="E235" t="s">
+        <v>30</v>
+      </c>
+      <c r="F235" t="s">
+        <v>266</v>
+      </c>
+      <c r="G235" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" t="s">
+        <v>30</v>
+      </c>
+      <c r="F236" t="s">
+        <v>267</v>
+      </c>
+      <c r="G236" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" t="s">
+        <v>26</v>
+      </c>
+      <c r="F237" t="s">
+        <v>268</v>
+      </c>
+      <c r="G237" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" t="s">
+        <v>30</v>
+      </c>
+      <c r="D238" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" t="s">
+        <v>26</v>
+      </c>
+      <c r="F238" t="s">
+        <v>269</v>
+      </c>
+      <c r="G238" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>25</v>
+      </c>
+      <c r="E239" t="s">
+        <v>31</v>
+      </c>
+      <c r="F239" t="s">
+        <v>270</v>
+      </c>
+      <c r="G239" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" t="s">
+        <v>30</v>
+      </c>
+      <c r="F240" t="s">
+        <v>271</v>
+      </c>
+      <c r="G240" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" t="s">
+        <v>30</v>
+      </c>
+      <c r="F241" t="s">
+        <v>272</v>
+      </c>
+      <c r="G241" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>26</v>
+      </c>
+      <c r="F242" t="s">
+        <v>273</v>
+      </c>
+      <c r="G242" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+      <c r="D243" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243" t="s">
+        <v>30</v>
+      </c>
+      <c r="F243" t="s">
         <v>274</v>
+      </c>
+      <c r="G243" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" t="s">
+        <v>275</v>
+      </c>
+      <c r="G244" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" t="s">
+        <v>276</v>
+      </c>
+      <c r="G245" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" t="s">
+        <v>31</v>
+      </c>
+      <c r="D246" t="s">
+        <v>23</v>
+      </c>
+      <c r="E246" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246" t="s">
+        <v>277</v>
+      </c>
+      <c r="G246" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" t="s">
+        <v>31</v>
+      </c>
+      <c r="F247" t="s">
+        <v>278</v>
+      </c>
+      <c r="G247" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>30</v>
+      </c>
+      <c r="F248" t="s">
+        <v>279</v>
+      </c>
+      <c r="G248" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+      <c r="F249" t="s">
+        <v>280</v>
+      </c>
+      <c r="G249" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
+        <v>30</v>
+      </c>
+      <c r="F250" t="s">
+        <v>281</v>
+      </c>
+      <c r="G250" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>24</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" t="s">
+        <v>26</v>
+      </c>
+      <c r="F251" t="s">
+        <v>282</v>
+      </c>
+      <c r="G251" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>19</v>
+      </c>
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" t="s">
+        <v>26</v>
+      </c>
+      <c r="F252" t="s">
+        <v>283</v>
+      </c>
+      <c r="G252" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" t="s">
+        <v>26</v>
+      </c>
+      <c r="F253" t="s">
+        <v>284</v>
+      </c>
+      <c r="G253" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" t="s">
+        <v>26</v>
+      </c>
+      <c r="F254" t="s">
+        <v>285</v>
+      </c>
+      <c r="G254" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255" t="s">
+        <v>31</v>
+      </c>
+      <c r="D255" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" t="s">
+        <v>27</v>
+      </c>
+      <c r="F255" t="s">
+        <v>286</v>
+      </c>
+      <c r="G255" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256" t="s">
+        <v>24</v>
+      </c>
+      <c r="E256" t="s">
+        <v>30</v>
+      </c>
+      <c r="F256" t="s">
+        <v>287</v>
+      </c>
+      <c r="G256" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" t="s">
+        <v>26</v>
+      </c>
+      <c r="F257" t="s">
+        <v>288</v>
+      </c>
+      <c r="G257" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" t="s">
+        <v>30</v>
+      </c>
+      <c r="F258" t="s">
+        <v>289</v>
+      </c>
+      <c r="G258" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>30</v>
+      </c>
+      <c r="D259" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" t="s">
+        <v>31</v>
+      </c>
+      <c r="F259" t="s">
+        <v>290</v>
+      </c>
+      <c r="G259" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>21</v>
+      </c>
+      <c r="C260" t="s">
+        <v>30</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>31</v>
+      </c>
+      <c r="F260" t="s">
+        <v>291</v>
+      </c>
+      <c r="G260" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>30</v>
+      </c>
+      <c r="F261" t="s">
+        <v>292</v>
+      </c>
+      <c r="G261" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" t="s">
+        <v>31</v>
+      </c>
+      <c r="D262" t="s">
+        <v>18</v>
+      </c>
+      <c r="E262" t="s">
+        <v>26</v>
+      </c>
+      <c r="F262" t="s">
+        <v>293</v>
+      </c>
+      <c r="G262" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>21</v>
+      </c>
+      <c r="C263" t="s">
+        <v>31</v>
+      </c>
+      <c r="D263" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" t="s">
+        <v>31</v>
+      </c>
+      <c r="F263" t="s">
+        <v>294</v>
+      </c>
+      <c r="G263" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>27</v>
+      </c>
+      <c r="D264" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" t="s">
+        <v>26</v>
+      </c>
+      <c r="F264" t="s">
+        <v>295</v>
+      </c>
+      <c r="G264" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265" t="s">
+        <v>30</v>
+      </c>
+      <c r="F265" t="s">
+        <v>296</v>
+      </c>
+      <c r="G265" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" t="s">
+        <v>30</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" t="s">
+        <v>26</v>
+      </c>
+      <c r="F266" t="s">
+        <v>297</v>
+      </c>
+      <c r="G266" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" t="s">
+        <v>31</v>
+      </c>
+      <c r="F267" t="s">
+        <v>298</v>
+      </c>
+      <c r="G267" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" t="s">
+        <v>26</v>
+      </c>
+      <c r="F268" t="s">
+        <v>299</v>
+      </c>
+      <c r="G268" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" t="s">
+        <v>26</v>
+      </c>
+      <c r="D269" t="s">
+        <v>24</v>
+      </c>
+      <c r="E269" t="s">
+        <v>31</v>
+      </c>
+      <c r="F269" t="s">
+        <v>300</v>
+      </c>
+      <c r="G269" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270" t="s">
+        <v>16</v>
+      </c>
+      <c r="E270" t="s">
+        <v>26</v>
+      </c>
+      <c r="F270" t="s">
+        <v>301</v>
+      </c>
+      <c r="G270" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>31</v>
+      </c>
+      <c r="D271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271" t="s">
+        <v>31</v>
+      </c>
+      <c r="F271" t="s">
+        <v>302</v>
+      </c>
+      <c r="G271" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/resultados.xlsx
+++ b/Excel/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="451">
   <si>
     <t>Mandante</t>
   </si>
@@ -925,6 +925,336 @@
     <t>Palmeiras x Bahia</t>
   </si>
   <si>
+    <t>Cruzeiro x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Vasco x Botafogo</t>
+  </si>
+  <si>
+    <t>São Paulo x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Fluminense x Avaí</t>
+  </si>
+  <si>
+    <t>Sport x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Palmeiras</t>
+  </si>
+  <si>
+    <t>Chapecoense x Flamengo</t>
+  </si>
+  <si>
+    <t>Coritiba x Grêmio</t>
+  </si>
+  <si>
+    <t>Bahia x Corinthians</t>
+  </si>
+  <si>
+    <t>Santos x Vitória</t>
+  </si>
+  <si>
+    <t>Coritiba x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Vasco</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Chapecoense</t>
+  </si>
+  <si>
+    <t>Fluminense x São Paulo</t>
+  </si>
+  <si>
+    <t>Corinthians x Grêmio</t>
+  </si>
+  <si>
+    <t>Avaí x Botafogo</t>
+  </si>
+  <si>
+    <t>Palmeiras x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Vitória x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Flamengo x Bahia</t>
+  </si>
+  <si>
+    <t>Sport x Santos</t>
+  </si>
+  <si>
+    <t>Vasco x Coritiba</t>
+  </si>
+  <si>
+    <t>Santos x Atlético-GO</t>
+  </si>
+  <si>
+    <t>São Paulo x Flamengo</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Sport</t>
+  </si>
+  <si>
+    <t>Grêmio x Palmeiras</t>
+  </si>
+  <si>
+    <t>Bahia x Vitória</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Avaí</t>
+  </si>
+  <si>
+    <t>Chapecoense x Fluminense</t>
+  </si>
+  <si>
+    <t>Botafogo x Corinthians</t>
+  </si>
+  <si>
+    <t>São Paulo x Santos</t>
+  </si>
+  <si>
+    <t>Flamengo x Vasco</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Chapecoense</t>
+  </si>
+  <si>
+    <t>Fluminense x Bahia</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Botafogo</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Corinthians</t>
+  </si>
+  <si>
+    <t>Sport x Coritiba</t>
+  </si>
+  <si>
+    <t>Vitória x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Avaí x Grêmio</t>
+  </si>
+  <si>
+    <t>Palmeiras x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Santos x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Botafogo x Fluminense</t>
+  </si>
+  <si>
+    <t>Atlético-GO x São Paulo</t>
+  </si>
+  <si>
+    <t>Coritiba x Avaí</t>
+  </si>
+  <si>
+    <t>Corinthians x Palmeiras</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Grêmio x Flamengo</t>
+  </si>
+  <si>
+    <t>Bahia x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Vasco x Vitória</t>
+  </si>
+  <si>
+    <t>Chapecoense x Sport</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Grêmio</t>
+  </si>
+  <si>
+    <t>Avaí x Bahia</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Corinthians</t>
+  </si>
+  <si>
+    <t>Sport x Botafogo</t>
+  </si>
+  <si>
+    <t>Flamengo x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Santos x Vasco</t>
+  </si>
+  <si>
+    <t>Vitória x Palmeiras</t>
+  </si>
+  <si>
+    <t>São Paulo x Chapecoense</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Fluminense x Coritiba</t>
+  </si>
+  <si>
+    <t>Botafogo x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Corinthians x Avaí</t>
+  </si>
+  <si>
+    <t>Vasco x São Paulo</t>
+  </si>
+  <si>
+    <t>Palmeiras x Flamengo</t>
+  </si>
+  <si>
+    <t>Grêmio x Vitória</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Sport</t>
+  </si>
+  <si>
+    <t>Bahia x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Fluminense</t>
+  </si>
+  <si>
+    <t>Coritiba x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Chapecoense x Santos</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Avaí</t>
+  </si>
+  <si>
+    <t>Grêmio x São Paulo</t>
+  </si>
+  <si>
+    <t>Vasco x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Corinthians x Fluminense</t>
+  </si>
+  <si>
+    <t>Botafogo x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Palmeiras x Sport</t>
+  </si>
+  <si>
+    <t>Chapecoense x Vitória</t>
+  </si>
+  <si>
+    <t>Coritiba x Flamengo</t>
+  </si>
+  <si>
+    <t>Bahia x Santos</t>
+  </si>
+  <si>
+    <t>Flamengo x Corinthians</t>
+  </si>
+  <si>
+    <t>São Paulo x Botafogo</t>
+  </si>
+  <si>
+    <t>Sport x Bahia</t>
+  </si>
+  <si>
+    <t>Vitória x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Chapecoense</t>
+  </si>
+  <si>
+    <t>Santos x Grêmio</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Coritiba</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Vasco</t>
+  </si>
+  <si>
+    <t>Fluminense x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Avaí x Palmeiras</t>
+  </si>
+  <si>
+    <t>Fluminense x Sport</t>
+  </si>
+  <si>
+    <t>Corinthians x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Vasco</t>
+  </si>
+  <si>
+    <t>Coritiba x São Paulo</t>
+  </si>
+  <si>
+    <t>Grêmio x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Vitória</t>
+  </si>
+  <si>
+    <t>Avaí x Atlético-PR</t>
+  </si>
+  <si>
+    <t>Flamengo x Santos</t>
+  </si>
+  <si>
+    <t>Bahia x Chapecoense</t>
+  </si>
+  <si>
+    <t>Palmeiras x Botafogo</t>
+  </si>
+  <si>
+    <t>Botafogo x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Vasco x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Santos x Avaí</t>
+  </si>
+  <si>
+    <t>São Paulo x Bahia</t>
+  </si>
+  <si>
+    <t>Atlético-MG x Grêmio</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Palmeiras</t>
+  </si>
+  <si>
+    <t>Sport x Corinthians</t>
+  </si>
+  <si>
+    <t>Vitória x Flamengo</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Fluminense</t>
+  </si>
+  <si>
+    <t>Chapecoense x Coritiba</t>
+  </si>
+  <si>
     <t>01ª RODADA</t>
   </si>
   <si>
@@ -1004,6 +1334,39 @@
   </si>
   <si>
     <t>27ª RODADA</t>
+  </si>
+  <si>
+    <t>28ª RODADA</t>
+  </si>
+  <si>
+    <t>29ª RODADA</t>
+  </si>
+  <si>
+    <t>30ª RODADA</t>
+  </si>
+  <si>
+    <t>31ª RODADA</t>
+  </si>
+  <si>
+    <t>32ª RODADA</t>
+  </si>
+  <si>
+    <t>33ª RODADA</t>
+  </si>
+  <si>
+    <t>34ª RODADA</t>
+  </si>
+  <si>
+    <t>35ª RODADA</t>
+  </si>
+  <si>
+    <t>36ª RODADA</t>
+  </si>
+  <si>
+    <t>37ª RODADA</t>
+  </si>
+  <si>
+    <t>38ª RODADA</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,7 +1770,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1430,7 +1793,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1453,7 +1816,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1476,7 +1839,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1499,7 +1862,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1522,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1545,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1568,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1591,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1614,7 +1977,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1637,7 +2000,7 @@
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1660,7 +2023,7 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1683,7 +2046,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1706,7 +2069,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1729,7 +2092,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1752,7 +2115,7 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1775,7 +2138,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1798,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1821,7 +2184,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1844,7 +2207,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1867,7 +2230,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1890,7 +2253,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1913,7 +2276,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1936,7 +2299,7 @@
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1959,7 +2322,7 @@
         <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1982,7 +2345,7 @@
         <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2005,7 +2368,7 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2028,7 +2391,7 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2051,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2074,7 +2437,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2097,7 +2460,7 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2120,7 +2483,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2143,7 +2506,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2166,7 +2529,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2189,7 +2552,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2212,7 +2575,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2235,7 +2598,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2258,7 +2621,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2281,7 +2644,7 @@
         <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2304,7 +2667,7 @@
         <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2327,7 +2690,7 @@
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2350,7 +2713,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2373,7 +2736,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2396,7 +2759,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2419,7 +2782,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2442,7 +2805,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2465,7 +2828,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2488,7 +2851,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2511,7 +2874,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2534,7 +2897,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2557,7 +2920,7 @@
         <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2580,7 +2943,7 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2603,7 +2966,7 @@
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2626,7 +2989,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2649,7 +3012,7 @@
         <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2672,7 +3035,7 @@
         <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2695,7 +3058,7 @@
         <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2718,7 +3081,7 @@
         <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2741,7 +3104,7 @@
         <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2764,7 +3127,7 @@
         <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2787,7 +3150,7 @@
         <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2810,7 +3173,7 @@
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2833,7 +3196,7 @@
         <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2856,7 +3219,7 @@
         <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2879,7 +3242,7 @@
         <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2902,7 +3265,7 @@
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2925,7 +3288,7 @@
         <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2948,7 +3311,7 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2971,7 +3334,7 @@
         <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2994,7 +3357,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3017,7 +3380,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3040,7 +3403,7 @@
         <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3063,7 +3426,7 @@
         <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3086,7 +3449,7 @@
         <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3109,7 +3472,7 @@
         <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3132,7 +3495,7 @@
         <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3155,7 +3518,7 @@
         <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3178,7 +3541,7 @@
         <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3201,7 +3564,7 @@
         <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3224,7 +3587,7 @@
         <v>112</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3247,7 +3610,7 @@
         <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3270,7 +3633,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3293,7 +3656,7 @@
         <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3316,7 +3679,7 @@
         <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3339,7 +3702,7 @@
         <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3362,7 +3725,7 @@
         <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3385,7 +3748,7 @@
         <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3408,7 +3771,7 @@
         <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3431,7 +3794,7 @@
         <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3454,7 +3817,7 @@
         <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3477,7 +3840,7 @@
         <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3500,7 +3863,7 @@
         <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3523,7 +3886,7 @@
         <v>125</v>
       </c>
       <c r="G94" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3546,7 +3909,7 @@
         <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3569,7 +3932,7 @@
         <v>127</v>
       </c>
       <c r="G96" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3592,7 +3955,7 @@
         <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3615,7 +3978,7 @@
         <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3638,7 +4001,7 @@
         <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3661,7 +4024,7 @@
         <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3684,7 +4047,7 @@
         <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3707,7 +4070,7 @@
         <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3730,7 +4093,7 @@
         <v>134</v>
       </c>
       <c r="G103" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3753,7 +4116,7 @@
         <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3776,7 +4139,7 @@
         <v>136</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3799,7 +4162,7 @@
         <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3822,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3845,7 +4208,7 @@
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3868,7 +4231,7 @@
         <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3891,7 +4254,7 @@
         <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3914,7 +4277,7 @@
         <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3937,7 +4300,7 @@
         <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3960,7 +4323,7 @@
         <v>144</v>
       </c>
       <c r="G113" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3983,7 +4346,7 @@
         <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4006,7 +4369,7 @@
         <v>146</v>
       </c>
       <c r="G115" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4029,7 +4392,7 @@
         <v>147</v>
       </c>
       <c r="G116" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4052,7 +4415,7 @@
         <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4075,7 +4438,7 @@
         <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4098,7 +4461,7 @@
         <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4121,7 +4484,7 @@
         <v>151</v>
       </c>
       <c r="G120" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4144,7 +4507,7 @@
         <v>152</v>
       </c>
       <c r="G121" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4167,7 +4530,7 @@
         <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4190,7 +4553,7 @@
         <v>154</v>
       </c>
       <c r="G123" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4213,7 +4576,7 @@
         <v>155</v>
       </c>
       <c r="G124" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4236,7 +4599,7 @@
         <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4259,7 +4622,7 @@
         <v>157</v>
       </c>
       <c r="G126" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4282,7 +4645,7 @@
         <v>158</v>
       </c>
       <c r="G127" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4305,7 +4668,7 @@
         <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4328,7 +4691,7 @@
         <v>160</v>
       </c>
       <c r="G129" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4351,7 +4714,7 @@
         <v>161</v>
       </c>
       <c r="G130" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4374,7 +4737,7 @@
         <v>162</v>
       </c>
       <c r="G131" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4397,7 +4760,7 @@
         <v>163</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4420,7 +4783,7 @@
         <v>164</v>
       </c>
       <c r="G133" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4443,7 +4806,7 @@
         <v>165</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4466,7 +4829,7 @@
         <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4489,7 +4852,7 @@
         <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4512,7 +4875,7 @@
         <v>168</v>
       </c>
       <c r="G137" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4535,7 +4898,7 @@
         <v>169</v>
       </c>
       <c r="G138" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4558,7 +4921,7 @@
         <v>170</v>
       </c>
       <c r="G139" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4581,7 +4944,7 @@
         <v>171</v>
       </c>
       <c r="G140" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4604,7 +4967,7 @@
         <v>172</v>
       </c>
       <c r="G141" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4627,7 +4990,7 @@
         <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4650,7 +5013,7 @@
         <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4673,7 +5036,7 @@
         <v>175</v>
       </c>
       <c r="G144" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4696,7 +5059,7 @@
         <v>176</v>
       </c>
       <c r="G145" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4719,7 +5082,7 @@
         <v>177</v>
       </c>
       <c r="G146" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4742,7 +5105,7 @@
         <v>178</v>
       </c>
       <c r="G147" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4765,7 +5128,7 @@
         <v>179</v>
       </c>
       <c r="G148" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4788,7 +5151,7 @@
         <v>180</v>
       </c>
       <c r="G149" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4811,7 +5174,7 @@
         <v>181</v>
       </c>
       <c r="G150" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4834,7 +5197,7 @@
         <v>182</v>
       </c>
       <c r="G151" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4857,7 +5220,7 @@
         <v>183</v>
       </c>
       <c r="G152" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4880,7 +5243,7 @@
         <v>184</v>
       </c>
       <c r="G153" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4903,7 +5266,7 @@
         <v>185</v>
       </c>
       <c r="G154" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4926,7 +5289,7 @@
         <v>186</v>
       </c>
       <c r="G155" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4949,7 +5312,7 @@
         <v>187</v>
       </c>
       <c r="G156" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4972,7 +5335,7 @@
         <v>188</v>
       </c>
       <c r="G157" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4995,7 +5358,7 @@
         <v>189</v>
       </c>
       <c r="G158" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5018,7 +5381,7 @@
         <v>190</v>
       </c>
       <c r="G159" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5041,7 +5404,7 @@
         <v>191</v>
       </c>
       <c r="G160" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5064,7 +5427,7 @@
         <v>192</v>
       </c>
       <c r="G161" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5087,7 +5450,7 @@
         <v>193</v>
       </c>
       <c r="G162" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5110,7 +5473,7 @@
         <v>194</v>
       </c>
       <c r="G163" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5133,7 +5496,7 @@
         <v>195</v>
       </c>
       <c r="G164" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5156,7 +5519,7 @@
         <v>196</v>
       </c>
       <c r="G165" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5179,7 +5542,7 @@
         <v>197</v>
       </c>
       <c r="G166" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5202,7 +5565,7 @@
         <v>198</v>
       </c>
       <c r="G167" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5225,7 +5588,7 @@
         <v>199</v>
       </c>
       <c r="G168" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5248,7 +5611,7 @@
         <v>200</v>
       </c>
       <c r="G169" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5271,7 +5634,7 @@
         <v>201</v>
       </c>
       <c r="G170" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5294,7 +5657,7 @@
         <v>202</v>
       </c>
       <c r="G171" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5317,7 +5680,7 @@
         <v>203</v>
       </c>
       <c r="G172" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5340,7 +5703,7 @@
         <v>204</v>
       </c>
       <c r="G173" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5363,7 +5726,7 @@
         <v>205</v>
       </c>
       <c r="G174" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5386,7 +5749,7 @@
         <v>206</v>
       </c>
       <c r="G175" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5409,7 +5772,7 @@
         <v>207</v>
       </c>
       <c r="G176" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5432,7 +5795,7 @@
         <v>208</v>
       </c>
       <c r="G177" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5455,7 +5818,7 @@
         <v>209</v>
       </c>
       <c r="G178" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5478,7 +5841,7 @@
         <v>210</v>
       </c>
       <c r="G179" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5501,7 +5864,7 @@
         <v>211</v>
       </c>
       <c r="G180" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5524,7 +5887,7 @@
         <v>212</v>
       </c>
       <c r="G181" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5547,7 +5910,7 @@
         <v>213</v>
       </c>
       <c r="G182" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5570,7 +5933,7 @@
         <v>214</v>
       </c>
       <c r="G183" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5593,7 +5956,7 @@
         <v>215</v>
       </c>
       <c r="G184" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5616,7 +5979,7 @@
         <v>216</v>
       </c>
       <c r="G185" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5639,7 +6002,7 @@
         <v>217</v>
       </c>
       <c r="G186" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5662,7 +6025,7 @@
         <v>218</v>
       </c>
       <c r="G187" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5685,7 +6048,7 @@
         <v>219</v>
       </c>
       <c r="G188" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5708,7 +6071,7 @@
         <v>220</v>
       </c>
       <c r="G189" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5731,7 +6094,7 @@
         <v>221</v>
       </c>
       <c r="G190" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5754,7 +6117,7 @@
         <v>222</v>
       </c>
       <c r="G191" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5777,7 +6140,7 @@
         <v>223</v>
       </c>
       <c r="G192" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5800,7 +6163,7 @@
         <v>224</v>
       </c>
       <c r="G193" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5823,7 +6186,7 @@
         <v>225</v>
       </c>
       <c r="G194" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5846,7 +6209,7 @@
         <v>226</v>
       </c>
       <c r="G195" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5869,7 +6232,7 @@
         <v>227</v>
       </c>
       <c r="G196" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5892,7 +6255,7 @@
         <v>228</v>
       </c>
       <c r="G197" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5915,7 +6278,7 @@
         <v>229</v>
       </c>
       <c r="G198" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5938,7 +6301,7 @@
         <v>230</v>
       </c>
       <c r="G199" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5961,7 +6324,7 @@
         <v>231</v>
       </c>
       <c r="G200" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5984,7 +6347,7 @@
         <v>232</v>
       </c>
       <c r="G201" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6007,7 +6370,7 @@
         <v>233</v>
       </c>
       <c r="G202" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6030,7 +6393,7 @@
         <v>234</v>
       </c>
       <c r="G203" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6053,7 +6416,7 @@
         <v>235</v>
       </c>
       <c r="G204" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6076,7 +6439,7 @@
         <v>236</v>
       </c>
       <c r="G205" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6099,7 +6462,7 @@
         <v>237</v>
       </c>
       <c r="G206" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6122,7 +6485,7 @@
         <v>238</v>
       </c>
       <c r="G207" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6145,7 +6508,7 @@
         <v>239</v>
       </c>
       <c r="G208" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6168,7 +6531,7 @@
         <v>240</v>
       </c>
       <c r="G209" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6191,7 +6554,7 @@
         <v>241</v>
       </c>
       <c r="G210" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6214,7 +6577,7 @@
         <v>242</v>
       </c>
       <c r="G211" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6237,7 +6600,7 @@
         <v>243</v>
       </c>
       <c r="G212" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6260,7 +6623,7 @@
         <v>244</v>
       </c>
       <c r="G213" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6283,7 +6646,7 @@
         <v>245</v>
       </c>
       <c r="G214" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6306,7 +6669,7 @@
         <v>246</v>
       </c>
       <c r="G215" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6329,7 +6692,7 @@
         <v>247</v>
       </c>
       <c r="G216" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6352,7 +6715,7 @@
         <v>248</v>
       </c>
       <c r="G217" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6375,7 +6738,7 @@
         <v>249</v>
       </c>
       <c r="G218" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6398,7 +6761,7 @@
         <v>250</v>
       </c>
       <c r="G219" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6421,7 +6784,7 @@
         <v>251</v>
       </c>
       <c r="G220" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6444,7 +6807,7 @@
         <v>252</v>
       </c>
       <c r="G221" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6467,7 +6830,7 @@
         <v>253</v>
       </c>
       <c r="G222" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6490,7 +6853,7 @@
         <v>254</v>
       </c>
       <c r="G223" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6513,7 +6876,7 @@
         <v>255</v>
       </c>
       <c r="G224" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6536,7 +6899,7 @@
         <v>256</v>
       </c>
       <c r="G225" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6559,7 +6922,7 @@
         <v>257</v>
       </c>
       <c r="G226" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6582,7 +6945,7 @@
         <v>258</v>
       </c>
       <c r="G227" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6605,7 +6968,7 @@
         <v>259</v>
       </c>
       <c r="G228" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6628,7 +6991,7 @@
         <v>260</v>
       </c>
       <c r="G229" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6651,7 +7014,7 @@
         <v>261</v>
       </c>
       <c r="G230" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6674,7 +7037,7 @@
         <v>262</v>
       </c>
       <c r="G231" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6697,7 +7060,7 @@
         <v>263</v>
       </c>
       <c r="G232" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6720,7 +7083,7 @@
         <v>264</v>
       </c>
       <c r="G233" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6743,7 +7106,7 @@
         <v>265</v>
       </c>
       <c r="G234" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6766,7 +7129,7 @@
         <v>266</v>
       </c>
       <c r="G235" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6789,7 +7152,7 @@
         <v>267</v>
       </c>
       <c r="G236" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6812,7 +7175,7 @@
         <v>268</v>
       </c>
       <c r="G237" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6835,7 +7198,7 @@
         <v>269</v>
       </c>
       <c r="G238" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6858,7 +7221,7 @@
         <v>270</v>
       </c>
       <c r="G239" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6881,7 +7244,7 @@
         <v>271</v>
       </c>
       <c r="G240" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6904,7 +7267,7 @@
         <v>272</v>
       </c>
       <c r="G241" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6927,7 +7290,7 @@
         <v>273</v>
       </c>
       <c r="G242" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6950,7 +7313,7 @@
         <v>274</v>
       </c>
       <c r="G243" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6973,7 +7336,7 @@
         <v>275</v>
       </c>
       <c r="G244" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6996,7 +7359,7 @@
         <v>276</v>
       </c>
       <c r="G245" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7019,7 +7382,7 @@
         <v>277</v>
       </c>
       <c r="G246" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7042,7 +7405,7 @@
         <v>278</v>
       </c>
       <c r="G247" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7065,7 +7428,7 @@
         <v>279</v>
       </c>
       <c r="G248" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7088,7 +7451,7 @@
         <v>280</v>
       </c>
       <c r="G249" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7111,7 +7474,7 @@
         <v>281</v>
       </c>
       <c r="G250" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7134,7 +7497,7 @@
         <v>282</v>
       </c>
       <c r="G251" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7157,7 +7520,7 @@
         <v>283</v>
       </c>
       <c r="G252" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7180,7 +7543,7 @@
         <v>284</v>
       </c>
       <c r="G253" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7203,7 +7566,7 @@
         <v>285</v>
       </c>
       <c r="G254" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7226,7 +7589,7 @@
         <v>286</v>
       </c>
       <c r="G255" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7249,7 +7612,7 @@
         <v>287</v>
       </c>
       <c r="G256" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7272,7 +7635,7 @@
         <v>288</v>
       </c>
       <c r="G257" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7295,7 +7658,7 @@
         <v>289</v>
       </c>
       <c r="G258" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7318,7 +7681,7 @@
         <v>290</v>
       </c>
       <c r="G259" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7341,7 +7704,7 @@
         <v>291</v>
       </c>
       <c r="G260" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7364,7 +7727,7 @@
         <v>292</v>
       </c>
       <c r="G261" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7387,7 +7750,7 @@
         <v>293</v>
       </c>
       <c r="G262" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7410,7 +7773,7 @@
         <v>294</v>
       </c>
       <c r="G263" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7433,7 +7796,7 @@
         <v>295</v>
       </c>
       <c r="G264" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7456,7 +7819,7 @@
         <v>296</v>
       </c>
       <c r="G265" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7479,7 +7842,7 @@
         <v>297</v>
       </c>
       <c r="G266" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7502,7 +7865,7 @@
         <v>298</v>
       </c>
       <c r="G267" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7525,7 +7888,7 @@
         <v>299</v>
       </c>
       <c r="G268" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7548,7 +7911,7 @@
         <v>300</v>
       </c>
       <c r="G269" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7571,7 +7934,7 @@
         <v>301</v>
       </c>
       <c r="G270" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7594,7 +7957,2537 @@
         <v>302</v>
       </c>
       <c r="G271" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>31</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" t="s">
+        <v>26</v>
+      </c>
+      <c r="F272" t="s">
+        <v>303</v>
+      </c>
+      <c r="G272" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" t="s">
+        <v>26</v>
+      </c>
+      <c r="D273" t="s">
+        <v>23</v>
+      </c>
+      <c r="E273" t="s">
+        <v>30</v>
+      </c>
+      <c r="F273" t="s">
+        <v>304</v>
+      </c>
+      <c r="G273" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274" t="s">
+        <v>26</v>
+      </c>
+      <c r="F274" t="s">
+        <v>305</v>
+      </c>
+      <c r="G274" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" t="s">
+        <v>26</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" t="s">
+        <v>30</v>
+      </c>
+      <c r="F275" t="s">
+        <v>306</v>
+      </c>
+      <c r="G275" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>24</v>
+      </c>
+      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+      <c r="D276" t="s">
+        <v>20</v>
+      </c>
+      <c r="E276" t="s">
+        <v>26</v>
+      </c>
+      <c r="F276" t="s">
+        <v>307</v>
+      </c>
+      <c r="G276" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277" t="s">
+        <v>26</v>
+      </c>
+      <c r="D277" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" t="s">
+        <v>27</v>
+      </c>
+      <c r="F277" t="s">
+        <v>308</v>
+      </c>
+      <c r="G277" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" t="s">
+        <v>30</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
+        <v>26</v>
+      </c>
+      <c r="F278" t="s">
+        <v>309</v>
+      </c>
+      <c r="G278" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" t="s">
+        <v>26</v>
+      </c>
+      <c r="F279" t="s">
+        <v>310</v>
+      </c>
+      <c r="G279" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>31</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" t="s">
+        <v>30</v>
+      </c>
+      <c r="F280" t="s">
+        <v>311</v>
+      </c>
+      <c r="G280" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" t="s">
+        <v>31</v>
+      </c>
+      <c r="D281" t="s">
+        <v>22</v>
+      </c>
+      <c r="E281" t="s">
+        <v>31</v>
+      </c>
+      <c r="F281" t="s">
+        <v>312</v>
+      </c>
+      <c r="G281" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" t="s">
+        <v>26</v>
+      </c>
+      <c r="D282" t="s">
+        <v>10</v>
+      </c>
+      <c r="E282" t="s">
+        <v>30</v>
+      </c>
+      <c r="F282" t="s">
+        <v>313</v>
+      </c>
+      <c r="G282" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283" t="s">
+        <v>26</v>
+      </c>
+      <c r="F283" t="s">
+        <v>314</v>
+      </c>
+      <c r="G283" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284" t="s">
+        <v>31</v>
+      </c>
+      <c r="D284" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" t="s">
+        <v>27</v>
+      </c>
+      <c r="F284" t="s">
+        <v>315</v>
+      </c>
+      <c r="G284" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" t="s">
+        <v>27</v>
+      </c>
+      <c r="D285" t="s">
+        <v>25</v>
+      </c>
+      <c r="E285" t="s">
+        <v>26</v>
+      </c>
+      <c r="F285" t="s">
+        <v>316</v>
+      </c>
+      <c r="G285" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>30</v>
+      </c>
+      <c r="D286" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" t="s">
+        <v>30</v>
+      </c>
+      <c r="F286" t="s">
+        <v>317</v>
+      </c>
+      <c r="G286" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287" t="s">
+        <v>26</v>
+      </c>
+      <c r="F287" t="s">
+        <v>318</v>
+      </c>
+      <c r="G287" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C288" t="s">
+        <v>31</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" t="s">
+        <v>30</v>
+      </c>
+      <c r="F288" t="s">
+        <v>319</v>
+      </c>
+      <c r="G288" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" t="s">
+        <v>31</v>
+      </c>
+      <c r="D289" t="s">
+        <v>21</v>
+      </c>
+      <c r="E289" t="s">
+        <v>27</v>
+      </c>
+      <c r="F289" t="s">
+        <v>320</v>
+      </c>
+      <c r="G289" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" t="s">
+        <v>26</v>
+      </c>
+      <c r="F290" t="s">
+        <v>321</v>
+      </c>
+      <c r="G290" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291" t="s">
+        <v>26</v>
+      </c>
+      <c r="D291" t="s">
+        <v>16</v>
+      </c>
+      <c r="E291" t="s">
+        <v>26</v>
+      </c>
+      <c r="F291" t="s">
+        <v>322</v>
+      </c>
+      <c r="G291" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292" t="s">
+        <v>26</v>
+      </c>
+      <c r="D292" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" t="s">
+        <v>26</v>
+      </c>
+      <c r="F292" t="s">
+        <v>323</v>
+      </c>
+      <c r="G292" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>16</v>
+      </c>
+      <c r="C293" t="s">
+        <v>26</v>
+      </c>
+      <c r="D293" t="s">
+        <v>17</v>
+      </c>
+      <c r="E293" t="s">
+        <v>30</v>
+      </c>
+      <c r="F293" t="s">
+        <v>324</v>
+      </c>
+      <c r="G293" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>25</v>
+      </c>
+      <c r="C294" t="s">
+        <v>31</v>
+      </c>
+      <c r="D294" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" t="s">
+        <v>30</v>
+      </c>
+      <c r="F294" t="s">
+        <v>325</v>
+      </c>
+      <c r="G294" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" t="s">
+        <v>26</v>
+      </c>
+      <c r="D295" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" t="s">
+        <v>27</v>
+      </c>
+      <c r="F295" t="s">
+        <v>326</v>
+      </c>
+      <c r="G295" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>21</v>
+      </c>
+      <c r="C296" t="s">
+        <v>31</v>
+      </c>
+      <c r="D296" t="s">
+        <v>24</v>
+      </c>
+      <c r="E296" t="s">
+        <v>26</v>
+      </c>
+      <c r="F296" t="s">
+        <v>327</v>
+      </c>
+      <c r="G296" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>26</v>
+      </c>
+      <c r="D297" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" t="s">
+        <v>27</v>
+      </c>
+      <c r="F297" t="s">
+        <v>328</v>
+      </c>
+      <c r="G297" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>31</v>
+      </c>
+      <c r="D298" t="s">
+        <v>22</v>
+      </c>
+      <c r="E298" t="s">
+        <v>26</v>
+      </c>
+      <c r="F298" t="s">
         <v>329</v>
+      </c>
+      <c r="G298" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>26</v>
+      </c>
+      <c r="D299" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" t="s">
+        <v>31</v>
+      </c>
+      <c r="F299" t="s">
+        <v>330</v>
+      </c>
+      <c r="G299" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300" t="s">
+        <v>31</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" t="s">
+        <v>30</v>
+      </c>
+      <c r="F300" t="s">
+        <v>331</v>
+      </c>
+      <c r="G300" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" t="s">
+        <v>31</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" t="s">
+        <v>26</v>
+      </c>
+      <c r="F301" t="s">
+        <v>332</v>
+      </c>
+      <c r="G301" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>25</v>
+      </c>
+      <c r="C302" t="s">
+        <v>31</v>
+      </c>
+      <c r="D302" t="s">
+        <v>16</v>
+      </c>
+      <c r="E302" t="s">
+        <v>26</v>
+      </c>
+      <c r="F302" t="s">
+        <v>333</v>
+      </c>
+      <c r="G302" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>30</v>
+      </c>
+      <c r="D303" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" t="s">
+        <v>30</v>
+      </c>
+      <c r="F303" t="s">
+        <v>334</v>
+      </c>
+      <c r="G303" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304" t="s">
+        <v>30</v>
+      </c>
+      <c r="D304" t="s">
+        <v>18</v>
+      </c>
+      <c r="E304" t="s">
+        <v>30</v>
+      </c>
+      <c r="F304" t="s">
+        <v>335</v>
+      </c>
+      <c r="G304" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" t="s">
+        <v>26</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" t="s">
+        <v>26</v>
+      </c>
+      <c r="F305" t="s">
+        <v>336</v>
+      </c>
+      <c r="G305" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" t="s">
+        <v>30</v>
+      </c>
+      <c r="D306" t="s">
+        <v>23</v>
+      </c>
+      <c r="E306" t="s">
+        <v>30</v>
+      </c>
+      <c r="F306" t="s">
+        <v>337</v>
+      </c>
+      <c r="G306" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>26</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" t="s">
+        <v>30</v>
+      </c>
+      <c r="F307" t="s">
+        <v>338</v>
+      </c>
+      <c r="G307" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>24</v>
+      </c>
+      <c r="C308" t="s">
+        <v>27</v>
+      </c>
+      <c r="D308" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" t="s">
+        <v>28</v>
+      </c>
+      <c r="F308" t="s">
+        <v>339</v>
+      </c>
+      <c r="G308" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>22</v>
+      </c>
+      <c r="C309" t="s">
+        <v>26</v>
+      </c>
+      <c r="D309" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" t="s">
+        <v>26</v>
+      </c>
+      <c r="F309" t="s">
+        <v>340</v>
+      </c>
+      <c r="G309" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" t="s">
+        <v>31</v>
+      </c>
+      <c r="D310" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" t="s">
+        <v>31</v>
+      </c>
+      <c r="F310" t="s">
+        <v>341</v>
+      </c>
+      <c r="G310" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" t="s">
+        <v>31</v>
+      </c>
+      <c r="D311" t="s">
+        <v>10</v>
+      </c>
+      <c r="E311" t="s">
+        <v>31</v>
+      </c>
+      <c r="F311" t="s">
+        <v>342</v>
+      </c>
+      <c r="G311" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" t="s">
+        <v>27</v>
+      </c>
+      <c r="D312" t="s">
+        <v>20</v>
+      </c>
+      <c r="E312" t="s">
+        <v>26</v>
+      </c>
+      <c r="F312" t="s">
+        <v>343</v>
+      </c>
+      <c r="G312" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313" t="s">
+        <v>26</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" t="s">
+        <v>31</v>
+      </c>
+      <c r="F313" t="s">
+        <v>344</v>
+      </c>
+      <c r="G313" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" t="s">
+        <v>25</v>
+      </c>
+      <c r="E314" t="s">
+        <v>26</v>
+      </c>
+      <c r="F314" t="s">
+        <v>345</v>
+      </c>
+      <c r="G314" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+      <c r="D315" t="s">
+        <v>13</v>
+      </c>
+      <c r="E315" t="s">
+        <v>30</v>
+      </c>
+      <c r="F315" t="s">
+        <v>346</v>
+      </c>
+      <c r="G315" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>27</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>31</v>
+      </c>
+      <c r="F316" t="s">
+        <v>347</v>
+      </c>
+      <c r="G316" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" t="s">
+        <v>26</v>
+      </c>
+      <c r="D317" t="s">
+        <v>21</v>
+      </c>
+      <c r="E317" t="s">
+        <v>30</v>
+      </c>
+      <c r="F317" t="s">
+        <v>348</v>
+      </c>
+      <c r="G317" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" t="s">
+        <v>27</v>
+      </c>
+      <c r="D318" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" t="s">
+        <v>26</v>
+      </c>
+      <c r="F318" t="s">
+        <v>349</v>
+      </c>
+      <c r="G318" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319" t="s">
+        <v>31</v>
+      </c>
+      <c r="D319" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" t="s">
+        <v>30</v>
+      </c>
+      <c r="F319" t="s">
+        <v>350</v>
+      </c>
+      <c r="G319" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>19</v>
+      </c>
+      <c r="C320" t="s">
+        <v>26</v>
+      </c>
+      <c r="D320" t="s">
+        <v>22</v>
+      </c>
+      <c r="E320" t="s">
+        <v>26</v>
+      </c>
+      <c r="F320" t="s">
+        <v>351</v>
+      </c>
+      <c r="G320" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" t="s">
+        <v>26</v>
+      </c>
+      <c r="D321" t="s">
+        <v>24</v>
+      </c>
+      <c r="E321" t="s">
+        <v>26</v>
+      </c>
+      <c r="F321" t="s">
+        <v>352</v>
+      </c>
+      <c r="G321" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>30</v>
+      </c>
+      <c r="D322" t="s">
+        <v>14</v>
+      </c>
+      <c r="E322" t="s">
+        <v>26</v>
+      </c>
+      <c r="F322" t="s">
+        <v>353</v>
+      </c>
+      <c r="G322" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" t="s">
+        <v>26</v>
+      </c>
+      <c r="D323" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" t="s">
+        <v>31</v>
+      </c>
+      <c r="F323" t="s">
+        <v>354</v>
+      </c>
+      <c r="G323" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>21</v>
+      </c>
+      <c r="C324" t="s">
+        <v>30</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" t="s">
+        <v>26</v>
+      </c>
+      <c r="F324" t="s">
+        <v>355</v>
+      </c>
+      <c r="G324" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>24</v>
+      </c>
+      <c r="C325" t="s">
+        <v>26</v>
+      </c>
+      <c r="D325" t="s">
+        <v>23</v>
+      </c>
+      <c r="E325" t="s">
+        <v>31</v>
+      </c>
+      <c r="F325" t="s">
+        <v>356</v>
+      </c>
+      <c r="G325" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" t="s">
+        <v>31</v>
+      </c>
+      <c r="D326" t="s">
+        <v>10</v>
+      </c>
+      <c r="E326" t="s">
+        <v>30</v>
+      </c>
+      <c r="F326" t="s">
+        <v>357</v>
+      </c>
+      <c r="G326" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>16</v>
+      </c>
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+      <c r="D327" t="s">
+        <v>19</v>
+      </c>
+      <c r="E327" t="s">
+        <v>31</v>
+      </c>
+      <c r="F327" t="s">
+        <v>358</v>
+      </c>
+      <c r="G327" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" t="s">
+        <v>27</v>
+      </c>
+      <c r="D328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>26</v>
+      </c>
+      <c r="F328" t="s">
+        <v>359</v>
+      </c>
+      <c r="G328" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>25</v>
+      </c>
+      <c r="C329" t="s">
+        <v>31</v>
+      </c>
+      <c r="D329" t="s">
+        <v>18</v>
+      </c>
+      <c r="E329" t="s">
+        <v>31</v>
+      </c>
+      <c r="F329" t="s">
+        <v>360</v>
+      </c>
+      <c r="G329" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>20</v>
+      </c>
+      <c r="C330" t="s">
+        <v>27</v>
+      </c>
+      <c r="D330" t="s">
+        <v>17</v>
+      </c>
+      <c r="E330" t="s">
+        <v>31</v>
+      </c>
+      <c r="F330" t="s">
+        <v>361</v>
+      </c>
+      <c r="G330" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" t="s">
+        <v>31</v>
+      </c>
+      <c r="D331" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" t="s">
+        <v>31</v>
+      </c>
+      <c r="F331" t="s">
+        <v>362</v>
+      </c>
+      <c r="G331" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" t="s">
+        <v>30</v>
+      </c>
+      <c r="D332" t="s">
+        <v>21</v>
+      </c>
+      <c r="E332" t="s">
+        <v>26</v>
+      </c>
+      <c r="F332" t="s">
+        <v>363</v>
+      </c>
+      <c r="G332" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+      <c r="D333" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333" t="s">
+        <v>30</v>
+      </c>
+      <c r="F333" t="s">
+        <v>364</v>
+      </c>
+      <c r="G333" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>19</v>
+      </c>
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+      <c r="D334" t="s">
+        <v>25</v>
+      </c>
+      <c r="E334" t="s">
+        <v>26</v>
+      </c>
+      <c r="F334" t="s">
+        <v>365</v>
+      </c>
+      <c r="G334" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" t="s">
+        <v>31</v>
+      </c>
+      <c r="D335" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" t="s">
+        <v>30</v>
+      </c>
+      <c r="F335" t="s">
+        <v>366</v>
+      </c>
+      <c r="G335" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" t="s">
+        <v>22</v>
+      </c>
+      <c r="E336" t="s">
+        <v>26</v>
+      </c>
+      <c r="F336" t="s">
+        <v>367</v>
+      </c>
+      <c r="G336" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>17</v>
+      </c>
+      <c r="C337" t="s">
+        <v>31</v>
+      </c>
+      <c r="D337" t="s">
+        <v>24</v>
+      </c>
+      <c r="E337" t="s">
+        <v>30</v>
+      </c>
+      <c r="F337" t="s">
+        <v>368</v>
+      </c>
+      <c r="G337" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" t="s">
+        <v>31</v>
+      </c>
+      <c r="D338" t="s">
+        <v>20</v>
+      </c>
+      <c r="E338" t="s">
+        <v>31</v>
+      </c>
+      <c r="F338" t="s">
+        <v>369</v>
+      </c>
+      <c r="G338" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>27</v>
+      </c>
+      <c r="D339" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339" t="s">
+        <v>26</v>
+      </c>
+      <c r="F339" t="s">
+        <v>370</v>
+      </c>
+      <c r="G339" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" t="s">
+        <v>26</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>26</v>
+      </c>
+      <c r="F340" t="s">
+        <v>371</v>
+      </c>
+      <c r="G340" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>18</v>
+      </c>
+      <c r="C341" t="s">
+        <v>31</v>
+      </c>
+      <c r="D341" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" t="s">
+        <v>30</v>
+      </c>
+      <c r="F341" t="s">
+        <v>372</v>
+      </c>
+      <c r="G341" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" t="s">
+        <v>31</v>
+      </c>
+      <c r="D342" t="s">
+        <v>21</v>
+      </c>
+      <c r="E342" t="s">
+        <v>26</v>
+      </c>
+      <c r="F342" t="s">
+        <v>373</v>
+      </c>
+      <c r="G342" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" t="s">
+        <v>31</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" t="s">
+        <v>31</v>
+      </c>
+      <c r="F343" t="s">
+        <v>374</v>
+      </c>
+      <c r="G343" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344" t="s">
+        <v>26</v>
+      </c>
+      <c r="D344" t="s">
+        <v>25</v>
+      </c>
+      <c r="E344" t="s">
+        <v>30</v>
+      </c>
+      <c r="F344" t="s">
+        <v>375</v>
+      </c>
+      <c r="G344" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>19</v>
+      </c>
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+      <c r="D345" t="s">
+        <v>20</v>
+      </c>
+      <c r="E345" t="s">
+        <v>26</v>
+      </c>
+      <c r="F345" t="s">
+        <v>376</v>
+      </c>
+      <c r="G345" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>27</v>
+      </c>
+      <c r="D346" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346" t="s">
+        <v>26</v>
+      </c>
+      <c r="F346" t="s">
+        <v>377</v>
+      </c>
+      <c r="G346" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347" t="s">
+        <v>26</v>
+      </c>
+      <c r="D347" t="s">
+        <v>17</v>
+      </c>
+      <c r="E347" t="s">
+        <v>31</v>
+      </c>
+      <c r="F347" t="s">
+        <v>378</v>
+      </c>
+      <c r="G347" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348" t="s">
+        <v>32</v>
+      </c>
+      <c r="D348" t="s">
+        <v>24</v>
+      </c>
+      <c r="E348" t="s">
+        <v>26</v>
+      </c>
+      <c r="F348" t="s">
+        <v>379</v>
+      </c>
+      <c r="G348" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>18</v>
+      </c>
+      <c r="C349" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349" t="s">
+        <v>22</v>
+      </c>
+      <c r="E349" t="s">
+        <v>26</v>
+      </c>
+      <c r="F349" t="s">
+        <v>380</v>
+      </c>
+      <c r="G349" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" t="s">
+        <v>26</v>
+      </c>
+      <c r="D350" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" t="s">
+        <v>30</v>
+      </c>
+      <c r="F350" t="s">
+        <v>381</v>
+      </c>
+      <c r="G350" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" t="s">
+        <v>27</v>
+      </c>
+      <c r="D351" t="s">
+        <v>16</v>
+      </c>
+      <c r="E351" t="s">
+        <v>26</v>
+      </c>
+      <c r="F351" t="s">
+        <v>382</v>
+      </c>
+      <c r="G351" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s">
+        <v>27</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" t="s">
+        <v>30</v>
+      </c>
+      <c r="F352" t="s">
+        <v>383</v>
+      </c>
+      <c r="G352" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>25</v>
+      </c>
+      <c r="C353" t="s">
+        <v>30</v>
+      </c>
+      <c r="D353" t="s">
+        <v>23</v>
+      </c>
+      <c r="E353" t="s">
+        <v>30</v>
+      </c>
+      <c r="F353" t="s">
+        <v>384</v>
+      </c>
+      <c r="G353" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>24</v>
+      </c>
+      <c r="C354" t="s">
+        <v>26</v>
+      </c>
+      <c r="D354" t="s">
+        <v>11</v>
+      </c>
+      <c r="E354" t="s">
+        <v>30</v>
+      </c>
+      <c r="F354" t="s">
+        <v>385</v>
+      </c>
+      <c r="G354" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>22</v>
+      </c>
+      <c r="C355" t="s">
+        <v>26</v>
+      </c>
+      <c r="D355" t="s">
+        <v>10</v>
+      </c>
+      <c r="E355" t="s">
+        <v>26</v>
+      </c>
+      <c r="F355" t="s">
+        <v>386</v>
+      </c>
+      <c r="G355" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>17</v>
+      </c>
+      <c r="C356" t="s">
+        <v>26</v>
+      </c>
+      <c r="D356" t="s">
+        <v>18</v>
+      </c>
+      <c r="E356" t="s">
+        <v>26</v>
+      </c>
+      <c r="F356" t="s">
+        <v>387</v>
+      </c>
+      <c r="G356" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+      <c r="C357" t="s">
+        <v>26</v>
+      </c>
+      <c r="D357" t="s">
+        <v>14</v>
+      </c>
+      <c r="E357" t="s">
+        <v>30</v>
+      </c>
+      <c r="F357" t="s">
+        <v>388</v>
+      </c>
+      <c r="G357" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>20</v>
+      </c>
+      <c r="C358" t="s">
+        <v>27</v>
+      </c>
+      <c r="D358" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" t="s">
+        <v>30</v>
+      </c>
+      <c r="F358" t="s">
+        <v>389</v>
+      </c>
+      <c r="G358" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>21</v>
+      </c>
+      <c r="C359" t="s">
+        <v>27</v>
+      </c>
+      <c r="D359" t="s">
+        <v>19</v>
+      </c>
+      <c r="E359" t="s">
+        <v>26</v>
+      </c>
+      <c r="F359" t="s">
+        <v>390</v>
+      </c>
+      <c r="G359" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" t="s">
+        <v>31</v>
+      </c>
+      <c r="D360" t="s">
+        <v>12</v>
+      </c>
+      <c r="E360" t="s">
+        <v>30</v>
+      </c>
+      <c r="F360" t="s">
+        <v>391</v>
+      </c>
+      <c r="G360" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>13</v>
+      </c>
+      <c r="C361" t="s">
+        <v>31</v>
+      </c>
+      <c r="D361" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" t="s">
+        <v>26</v>
+      </c>
+      <c r="F361" t="s">
+        <v>392</v>
+      </c>
+      <c r="G361" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" t="s">
+        <v>24</v>
+      </c>
+      <c r="E362" t="s">
+        <v>31</v>
+      </c>
+      <c r="F362" t="s">
+        <v>393</v>
+      </c>
+      <c r="G362" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>31</v>
+      </c>
+      <c r="D363" t="s">
+        <v>20</v>
+      </c>
+      <c r="E363" t="s">
+        <v>31</v>
+      </c>
+      <c r="F363" t="s">
+        <v>394</v>
+      </c>
+      <c r="G363" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>10</v>
+      </c>
+      <c r="C364" t="s">
+        <v>30</v>
+      </c>
+      <c r="D364" t="s">
+        <v>19</v>
+      </c>
+      <c r="E364" t="s">
+        <v>26</v>
+      </c>
+      <c r="F364" t="s">
+        <v>395</v>
+      </c>
+      <c r="G364" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+      <c r="C365" t="s">
+        <v>26</v>
+      </c>
+      <c r="D365" t="s">
+        <v>25</v>
+      </c>
+      <c r="E365" t="s">
+        <v>31</v>
+      </c>
+      <c r="F365" t="s">
+        <v>396</v>
+      </c>
+      <c r="G365" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>14</v>
+      </c>
+      <c r="C366" t="s">
+        <v>26</v>
+      </c>
+      <c r="D366" t="s">
+        <v>17</v>
+      </c>
+      <c r="E366" t="s">
+        <v>26</v>
+      </c>
+      <c r="F366" t="s">
+        <v>397</v>
+      </c>
+      <c r="G366" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367" t="s">
+        <v>31</v>
+      </c>
+      <c r="D367" t="s">
+        <v>22</v>
+      </c>
+      <c r="E367" t="s">
+        <v>27</v>
+      </c>
+      <c r="F367" t="s">
+        <v>398</v>
+      </c>
+      <c r="G367" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>13</v>
+      </c>
+      <c r="C368" t="s">
+        <v>26</v>
+      </c>
+      <c r="D368" t="s">
+        <v>21</v>
+      </c>
+      <c r="E368" t="s">
+        <v>30</v>
+      </c>
+      <c r="F368" t="s">
+        <v>399</v>
+      </c>
+      <c r="G368" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s">
+        <v>26</v>
+      </c>
+      <c r="D369" t="s">
+        <v>16</v>
+      </c>
+      <c r="E369" t="s">
+        <v>31</v>
+      </c>
+      <c r="F369" t="s">
+        <v>400</v>
+      </c>
+      <c r="G369" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s">
+        <v>30</v>
+      </c>
+      <c r="D370" t="s">
+        <v>18</v>
+      </c>
+      <c r="E370" t="s">
+        <v>26</v>
+      </c>
+      <c r="F370" t="s">
+        <v>401</v>
+      </c>
+      <c r="G370" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>31</v>
+      </c>
+      <c r="D371" t="s">
+        <v>23</v>
+      </c>
+      <c r="E371" t="s">
+        <v>30</v>
+      </c>
+      <c r="F371" t="s">
+        <v>402</v>
+      </c>
+      <c r="G371" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372" t="s">
+        <v>31</v>
+      </c>
+      <c r="D372" t="s">
+        <v>10</v>
+      </c>
+      <c r="E372" t="s">
+        <v>31</v>
+      </c>
+      <c r="F372" t="s">
+        <v>403</v>
+      </c>
+      <c r="G372" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" t="s">
+        <v>31</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>26</v>
+      </c>
+      <c r="F373" t="s">
+        <v>404</v>
+      </c>
+      <c r="G373" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>16</v>
+      </c>
+      <c r="C374" t="s">
+        <v>26</v>
+      </c>
+      <c r="D374" t="s">
+        <v>13</v>
+      </c>
+      <c r="E374" t="s">
+        <v>26</v>
+      </c>
+      <c r="F374" t="s">
+        <v>405</v>
+      </c>
+      <c r="G374" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" t="s">
+        <v>26</v>
+      </c>
+      <c r="D375" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375" t="s">
+        <v>26</v>
+      </c>
+      <c r="F375" t="s">
+        <v>406</v>
+      </c>
+      <c r="G375" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>20</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376" t="s">
+        <v>27</v>
+      </c>
+      <c r="F376" t="s">
+        <v>407</v>
+      </c>
+      <c r="G376" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>21</v>
+      </c>
+      <c r="C377" t="s">
+        <v>27</v>
+      </c>
+      <c r="D377" t="s">
+        <v>9</v>
+      </c>
+      <c r="E377" t="s">
+        <v>30</v>
+      </c>
+      <c r="F377" t="s">
+        <v>408</v>
+      </c>
+      <c r="G377" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>24</v>
+      </c>
+      <c r="C378" t="s">
+        <v>26</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378" t="s">
+        <v>30</v>
+      </c>
+      <c r="F378" t="s">
+        <v>409</v>
+      </c>
+      <c r="G378" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>22</v>
+      </c>
+      <c r="C379" t="s">
+        <v>26</v>
+      </c>
+      <c r="D379" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" t="s">
+        <v>31</v>
+      </c>
+      <c r="F379" t="s">
+        <v>410</v>
+      </c>
+      <c r="G379" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>17</v>
+      </c>
+      <c r="C380" t="s">
+        <v>26</v>
+      </c>
+      <c r="D380" t="s">
+        <v>8</v>
+      </c>
+      <c r="E380" t="s">
+        <v>26</v>
+      </c>
+      <c r="F380" t="s">
+        <v>411</v>
+      </c>
+      <c r="G380" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>18</v>
+      </c>
+      <c r="C381" t="s">
+        <v>31</v>
+      </c>
+      <c r="D381" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" t="s">
+        <v>26</v>
+      </c>
+      <c r="F381" t="s">
+        <v>412</v>
+      </c>
+      <c r="G381" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
